--- a/excel_creado/resultados_amazon.xlsx
+++ b/excel_creado/resultados_amazon.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,45 +500,45 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>M12S-200 Sistema inteligente de transmisión de motocicletas, 77G radar de onda milimétrica Advertencia de punto ciego, conectividad inalámbrica CarPlay/Android Auto, Asistencia de carril de</t>
+          <t>ScorpionEXO R1 Air Casco de motocicleta de cara completa de fibra de carbono con escudo Pinlock con bolsillos para altavoces listos para Bluetooth, DOT ECE, sólido (negro mate, 2XL)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.3 de 5 estrellas</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>399</v>
+        <v>550</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Patrocinado</t>
+          <t>General</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>399</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Carpuride Pantalla Carplay para motocicleta W603, CarPlay inalámbrico y Android Auto para Moto, control remoto, pantalla táctil impermeable de 6.3 pulgadas, BT Trans, navegación GPS, Siri, asistente</t>
+          <t>Bell MX-9 Adventure MIPS Casco de motocicleta integral</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4.7 de 5 estrellas</t>
+          <t>4.5 de 5 estrellas</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="D4" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -546,33 +546,33 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Carpuride Pantalla Carplay para motocicleta W603, CarPlay inalámbrico y Android Auto para Moto, control remoto, pantalla táctil impermeable de 6.3 pulgadas, BT Trans, navegación GPS, Siri, asistente</t>
+          <t>Gerbing Chaleco térmico unisex de 12 V, resistente al viento, motocicleta, deportes de motor</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4.7 de 5 estrellas</t>
+          <t>4.1 de 5 estrellas</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D5" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Patrocinado</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>241</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6">
@@ -656,19 +656,19 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Rhinowalk Bolsas de sillín para motocicleta, impermeables, antivibraciones, bolsas laterales de motor, bolsa de hombro, alforjas de motocicleta 48L (24L x 2) para la mayoría de los soportes de</t>
+          <t>para Motorola Moto Razr 40 Ultra Kit de reemplazo de pantalla abatible para Moto Razr+Plus 2023 Pantalla LCD Flip XT2321 XT2321-3 XT2321-5 Pantalla LCD táctil digitalizador Asamblea (negro)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4.3 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -676,18 +676,18 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>160</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Rhinowalk Bolsas de sillín para motocicleta, impermeables, antivibraciones, bolsas laterales de motor, bolsa de hombro, alforjas de motocicleta 48L (24L x 2) para la mayoría de los soportes de</t>
+          <t>USWE Moto Hydro Hydration Pack - con bolsa de agua, una mochila de gama alta, sin rebote para enduro y motocicleta todoterreno</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4.3 de 5 estrellas</t>
+          <t>4.6 de 5 estrellas</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -708,27 +708,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>USWE Moto Hydro Hydration Pack - con bolsa de agua, una mochila de gama alta, sin rebote para enduro y motocicleta todoterreno</t>
+          <t>GearDryer Dryer for Boots Gloves Turnout Scuba Moto Ski Gear</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4.6 de 5 estrellas</t>
+          <t>4.2 de 5 estrellas</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Patrocinado</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12">
@@ -812,33 +812,33 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DECIMAL Chaqueta de motociclista de piel de cordero real negra para hombre, color negro</t>
+          <t>FreedConn Auriculares Bluetooth para motocicleta con cámara 2K Hi-Res 360° Disparo 6 Jinetes 1500M Motocicleta Intercomunicador Bluetooth Cámara de motocicleta IP65 128G TF</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4.2 de 5 estrellas</t>
+          <t>4.1 de 5 estrellas</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>130</v>
       </c>
       <c r="D15" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Patrocinado</t>
+          <t>General</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FreedConn Auriculares Bluetooth para motocicleta con cámara 2K Hi-Res 360° Disparo 6 Jinetes 1500M Motocicleta Intercomunicador Bluetooth Cámara de motocicleta IP65 128G TF</t>
+          <t>Cargador de batería de litio de 14.6 V y 30 amperios para batería LiFePO4 de 12 V (12.8 V), cargador de batería IP65 impermeable/marino para remolque automotriz de 12 voltios, RV, SUV, moto,</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Patrocinado</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -890,7 +890,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Cargador de batería de litio de 14.6 V y 30 amperios para batería LiFePO4 de 12 V (12.8 V), cargador de batería IP65 impermeable/marino para remolque automotriz de 12 voltios, RV, SUV, moto,</t>
+          <t>Motorola Moto Watch 120 - Reloj inteligente de alta calidad para hombre con pantalla AMOLED, batería de 10 días, seguimiento de frecuencia cardíaca y SpO2, monitoreo de fitness y salud, compatible con</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Patrocinado</t>
+          <t>General</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -916,27 +916,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Motorola Moto Watch 120 - Reloj inteligente de alta calidad para hombre con pantalla AMOLED, batería de 10 días, seguimiento de frecuencia cardíaca y SpO2, monitoreo de fitness y salud, compatible con</t>
+          <t>Funda superior de motocicleta de 45 L, caja trasera universal para motocicleta, caja de almacenamiento para maletero de scooter para equipaje con placa de montaje de liberación rápida, color plateado</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4.1 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Patrocinado</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20">
@@ -994,16 +994,16 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Flate Mate - Inflador de neumáticos analógico de mano con manguera de goma de 6 pies, inflador de neumáticos compacto para automóviles, motocicletas, bicicletas, 174 PSI con monitor de pantalla LED</t>
+          <t>Hélice de barco OEM de 14 1/2 x 19 paso 48-832830A45 compatible con Mercruiser Alpha One y Motos fuera de borda Mercury 135-300 Hp, hélice mercruiser 3.0 de 14.5 x 19p, kits de bujes</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5.0 de 5 estrellas</t>
+          <t>4.4 de 5 estrellas</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Moto X Kids</t>
+          <t>Moto Tag (paquete de 4)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>5.0 de 5 estrellas</t>
+          <t>3.8 de 5 estrellas</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1040,18 +1040,18 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Moto Tag (paquete de 4)</t>
+          <t>Hélice de barco de aluminio de paso de 13 3/4 x15 para Suzuki Motos fuera de borda DF70/80/90/100/115/140HP, 3 cuchillas15 dientes spline, piezas OEM No. 58100-94500-019, RH,</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3.8 de 5 estrellas</t>
+          <t>5.0 de 5 estrellas</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Patrocinado</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1202,68 +1202,68 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BraveWAY Luces antiniebla LED de conducción para motocicleta, 4.5 pulgadas, 140 W, 15530 lúmenes, foco blanco/amarillo, auxiliar, luces de cápsula de zanja con cubiertas ámbar, soportes de montaje</t>
+          <t>Moto Universal Ultimate - Funda impermeable para motocicleta, almacenamiento al aire libre, resistente, duradera, para todo tipo de clima, para todas las estaciones, protección contra la</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4.1 de 5 estrellas</t>
+          <t>4.8 de 5 estrellas</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Patrocinado</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BraveWAY Luces antiniebla LED de conducción para motocicleta, 4.5 pulgadas, 140 W, 15530 lúmenes, foco blanco/amarillo, auxiliar, luces de cápsula de zanja con cubiertas ámbar, soportes de montaje</t>
+          <t>11 1/2 × 11 11 5/8 × 12p 11 1/2 × 13p 11 3/8 × 14p 11 × 15p OEM actualización OEM motor fuera de borda hélice de barco compatible con motores Suzuki 35-65 HP, 13 dientes estriados</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4.1 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Patrocinado</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Para BMW R1200GS R1200RT R1200 GS R1200ST 2004-2012 Guardabarros trasero de motocicleta Guardabarros neumático Hugger Splash Guard Cover Accesorios (negro)</t>
+          <t>VIF Jason Marine 13 1/4x17-K - Hélice de aluminio para motos fuera de borda Yamaha 60/70/75/80/85/90/115/130HP, piezas OEM No.6E5-45945-01-EL,15 diente, Rh</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.6 de 5 estrellas</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1274,22 +1274,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Moto Universal Ultimate - Funda impermeable para motocicleta, almacenamiento al aire libre, resistente, duradera, para todo tipo de clima, para todas las estaciones, protección contra la</t>
+          <t>Badass Moto Funda de motocicleta para Harley Davidson Street Glide, cubierta de motocicleta Harley para todas las estaciones, cubierta de almacenamiento al aire libre impermeable para Harley Davidson,</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4.8 de 5 estrellas</t>
+          <t>4.7 de 5 estrellas</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1300,22 +1300,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Badass Moto Funda de motocicleta para Harley Davidson Street Glide, cubierta de motocicleta Harley para todas las estaciones, cubierta de almacenamiento al aire libre impermeable para Harley Davidson,</t>
+          <t>KiWAV Espejos de motocicleta rectangulares ClassicPlus negro convexo, asférico, antirreflejos, vidrio tintado azul, tallo más largo, 0.394 in, 5/16 pulgadas, adaptadores para Cafe Racer Bobber Chopper</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4.7 de 5 estrellas</t>
+          <t>4.1 de 5 estrellas</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1326,22 +1326,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>KiWAV Espejos de motocicleta rectangulares ClassicPlus negro convexo, asférico, antirreflejos, vidrio tintado azul, tallo más largo, 0.394 in, 5/16 pulgadas, adaptadores para Cafe Racer Bobber Chopper</t>
+          <t>STARTWO Fundas para motocicleta con caja lateral, impermeables, para exteriores, para Harley Davidson Touring Modelos Road King, Road Glide, CVO Street Glide, Low Rider-ST, Electra Glide y la mayoría</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4.1 de 5 estrellas</t>
+          <t>4.9 de 5 estrellas</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1352,22 +1352,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>FreedConn Auriculares Bluetooth para motocicleta KY PRO - Sistemas de comunicación de motocicleta Bluetooth 5.0 3,937.0 ft 6 Riders Bluetooth cascos altavoces GPS/micrófono duro y suave/música</t>
+          <t>CF Moto UFORCE 500, 600, 800, 1000 2018-2024 Juego de pastillas de freno de cerámica delanteras y traseras</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4.3 de 5 estrellas</t>
+          <t>4.5 de 5 estrellas</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -1378,25 +1378,25 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>304 Stainless Steel Motorcycle Footpegs for Harley for Honda for Suzuki Kawasaki BMW - Adjustable Highway Footrests with 360° Rotation &amp; 270° Tilt, Anti-Slip Design (White, Long)</t>
+          <t>Motorola Moto Watch 70 - Reloj inteligente de salud y fitness para uso diario, funciones avanzadas de salud, hasta 10 días de duración de la batería, compatible con Android e iOS, negro fantasma</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>3.7 de 5 estrellas</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>STARTWO Fundas para motocicleta con caja lateral, impermeables, para exteriores, para Harley Davidson Touring Modelos Road King, Road Glide, CVO Street Glide, Low Rider-ST, Electra Glide y la mayoría</t>
+          <t>Xpose Safety - Cuerda elástica de goma con ganchos para exteriores, correas y amarres negros resistentes para cubiertas, lonas, toldos, motocicleta y cargamento</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4.9 de 5 estrellas</t>
+          <t>4.7 de 5 estrellas</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -1430,74 +1430,74 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Favoto Casco de motocicleta de cara completa aprobado por DOT, Cascos para Motos de moto de nieve, casco de motocross para adultos, hombres y mujeres, película antivaho incluida</t>
+          <t>Motorola Moto 40 Smartwatch - Batería de 10 días, integración con Google Fit, pantalla transparente de 1.5 pulgadas, seguimiento cardíaco, seguimiento del sueño en profundidad, compatible con iOS y</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4.4 de 5 estrellas</t>
+          <t>3.6 de 5 estrellas</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Patrocinado</t>
+          <t>General</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CF Moto UFORCE 500, 600, 800, 1000 2018-2024 Juego de pastillas de freno de cerámica delanteras y traseras</t>
+          <t>STARTWO Fundas para motocicleta con caja lateral, impermeables, para exteriores, para Harley Davidson Touring Modelos Road King, Road Glide, Street Glide, Heritage Classic, Electra Glide y la mayoría</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4.5 de 5 estrellas</t>
+          <t>4.9 de 5 estrellas</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Patrocinado</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CF Moto CFORCE 600, 800, 1000 2019-2024 Juego de pastillas de freno de cerámica delanteras y traseras</t>
+          <t>Cerradura de cadena de acero inoxidable con 4 llaves iguales, cerradura y cadena a prueba de óxido, cerradura de grado marino para bicicleta, moto, scooter, barco, camión y puerta, antirrobo -</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4.7 de 5 estrellas</t>
+          <t>4.6 de 5 estrellas</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1508,51 +1508,51 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CF Moto UFORCE 500, 600, 800, 1000 2018-2024 Juego de pastillas de freno de cerámica delanteras y traseras</t>
+          <t>ILM - Pantalones de motocross para motocicleta para hombre; son blindados, para andar en motocicleta, aventuras, turismo, etc.</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4.5 de 5 estrellas</t>
+          <t>4.3 de 5 estrellas</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Patrocinado</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Motorola Moto Watch 70 - Reloj inteligente de salud y fitness para uso diario, funciones avanzadas de salud, hasta 10 días de duración de la batería, compatible con Android e iOS, negro fantasma</t>
+          <t>para Motorola Moto Edge 30 Ultra XT2201 Pantalla LCD táctil digitalizador Asamblea reemplazo 6.67"</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3.7 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D43" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1560,22 +1560,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Xpose Safety - Cuerda elástica de goma con ganchos para exteriores, correas y amarres negros resistentes para cubiertas, lonas, toldos, motocicleta y cargamento</t>
+          <t>420D Cotton Motorcycle Cover Night Reflective Design,for Harley Davidson Cruiser Models,Heavy Duty Sun Rain Outdoor Protection Motorbike Cover with Antenna Zipper &amp; Soft Cotton Lining</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4.7 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -1586,74 +1586,74 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Motorola Moto 40 Smartwatch - Batería de 10 días, integración con Google Fit, pantalla transparente de 1.5 pulgadas, seguimiento cardíaco, seguimiento del sueño en profundidad, compatible con iOS y</t>
+          <t>420D Cotton Motorcycle Cover Night Reflective Design,for Harley Davidson Cruiser Models,Heavy Duty Sun Rain Outdoor Protection Motorbike Cover with Antenna Zipper &amp; Soft Cotton Lining</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3.6 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Patrocinado</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Cerradura de cadena de acero inoxidable con 4 llaves iguales, cerradura y cadena a prueba de óxido, cerradura de grado marino para bicicleta, moto, scooter, barco, camión y puerta, antirrobo -</t>
+          <t>Motorola Moto Buds XT2441-1 Dinamic ANC, Triple Mic. Array, IPX IP54, Bluetooth 5.3, Dolby Atmos-Sound - (azul arándano)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4.6 de 5 estrellas</t>
+          <t>4.9 de 5 estrellas</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Patrocinado</t>
+          <t>General</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ILM - Pantalones de motocross para motocicleta para hombre; son blindados, para andar en motocicleta, aventuras, turismo, etc.</t>
+          <t>Bomba eléctrica portátil de transferencia de gasolina CC de 12 V 75 W, mueve hasta 110 galones de gas por hora, ideal para vehículos, barcos, motocicletas, equipos, gasolina (bomba individual de 110</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4.3 de 5 estrellas</t>
+          <t>4.8 de 5 estrellas</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -1664,13 +1664,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>STARTWO Fundas para motocicleta con caja lateral, impermeables, para exteriores, para Harley Davidson Touring Modelos Road King, Road Glide, Street Glide, Heritage Classic, Electra Glide y la mayoría</t>
+          <t>STARTWO Fundas impermeables para motocicleta, almacenamiento al aire libre, resistente, todas las estaciones, cubierta universal de vehículo para Harley Davidson XTM 350, XTM 500, Nightster, Sportster</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1690,51 +1690,51 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HEROBIKER Chaqueta de armadura de cuerpo completo para motocicleta, equipo de protección del pecho de la columna vertebral, protector de motos de motocross, chaqueta de motocicleta 2</t>
+          <t>Mochila para casco de motocicleta para hombre, poliuretano impermeable, transpirable, a la moda, de gran capacidad, bolsa de viaje para laptop</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4.3 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Patrocinado</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>FENRIR Cubierta de motocicleta 420D de 96 pulgadas, impermeable, para almacenamiento al aire libre, tubo de escape antiquemaduras para Cruiser Rebel Shadow Vstar Bolt VMAX Boulevard Vulcan Sportster Softail Dyna Scout Vrod Street750/500</t>
+          <t>Mochila para casco de motocicleta para hombre, poliuretano impermeable, transpirable, a la moda, de gran capacidad, bolsa de viaje para laptop</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4.7 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D50" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1742,59 +1742,33 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>para Motorola Moto Edge 30 Ultra XT2201 Pantalla LCD táctil digitalizador Asamblea reemplazo 6.67"</t>
+          <t>STARTWO Fundas para motocicleta, impermeables, para almacenamiento al aire libre, resistentes, para todas las estaciones, universal, serie Adventure y la mayoría de motocicletas, 96 x 43 x 55</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.5 de 5 estrellas</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Patrocinado</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>420D Cotton Motorcycle Cover Night Reflective Design,for Harley Davidson Cruiser Models,Heavy Duty Sun Rain Outdoor Protection Motorbike Cover with Antenna Zipper &amp; Soft Cotton Lining</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Sin calificación</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>50</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Patrocinado</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1851,16 +1825,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>420D Cotton Motorcycle Cover Night Reflective Design,for Harley Davidson Cruiser Models,Heavy Duty Sun Rain Outdoor Protection Motorbike Cover with Antenna Zipper &amp; Soft Cotton Lining</t>
+          <t>STARTWO Fundas para motocicleta, impermeables, para almacenamiento al aire libre, resistentes, para todas las estaciones, universal, serie Adventure y la mayoría de motocicletas, 96 x 43 x 55</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.5 de 5 estrellas</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1871,25 +1845,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Soporte magnético para teléfono de moto Pro con extensor | Anti vibración | Soporte de teléfono impermeable para manillar de motocicleta | Orientación de 360°</t>
+          <t>Paquete de 2 cargadores de batería inteligentes totalmente automáticos de 6 V 12 V para automóvil, marina, motocicleta, cortacésped</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4.3 de 5 estrellas</t>
+          <t>4.5 de 5 estrellas</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1903,16 +1877,16 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Motorola Moto Buds XT2441-1 Dinamic ANC, Triple Mic. Array, IPX IP54, Bluetooth 5.3, Dolby Atmos-Sound - (azul arándano)</t>
+          <t>J.A.G. Guantes de motocicleta – Guantes de motocicleta perforados de cuero premium para hombres con protección de nudillos | Guantes de motocicleta con pantalla táctil</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4.9 de 5 estrellas</t>
+          <t>4.2 de 5 estrellas</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1923,51 +1897,51 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Motorola Moto Buds XT2441-1 Dinamic ANC, Triple Mic. Array, IPX IP54, Bluetooth 5.3, Dolby Atmos-Sound - (azul arándano)</t>
+          <t>J.A.G. Guantes de motocicleta – Guantes de motocicleta perforados de cuero premium para hombres con protección de nudillos | Guantes de motocicleta con pantalla táctil</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4.9 de 5 estrellas</t>
+          <t>4.2 de 5 estrellas</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Patrocinado</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bomba eléctrica portátil de transferencia de gasolina CC de 12 V 75 W, mueve hasta 110 galones de gas por hora, ideal para vehículos, barcos, motocicletas, equipos, gasolina (bomba individual de 110</t>
+          <t>Funda universal para motocicleta para todas las estaciones, resistente 420D, cubierta solar para motocicleta, cubierta de protección solar con agujeros de bloqueo, reflectante nocturna y bolsa</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4.8 de 5 estrellas</t>
+          <t>5.0 de 5 estrellas</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1975,48 +1949,48 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>STARTWO Fundas impermeables para motocicleta, almacenamiento al aire libre, resistente, todas las estaciones, cubierta universal de vehículo para Harley Davidson XTM 350, XTM 500, Nightster, Sportster</t>
+          <t>Reemplazo de pantalla para Motorola Moto G Stylus 4G 2023 Original, XT2317 Pantalla LCD táctil digitalizador Asamblea piezas de reparación con kit (negro con marco)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4.9 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Patrocinado</t>
+          <t>General</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mochila para casco de motocicleta para hombre, poliuretano impermeable, transpirable, a la moda, de gran capacidad, bolsa de viaje para laptop</t>
+          <t>Candado de motocicleta para casco y manillar, combo antirrobo para motocicleta, ciclomotor, motocicleta, scooters, ATV, motocross, bicicleta de calle</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>3.5 de 5 estrellas</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -2027,13 +2001,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mochila para casco de motocicleta para hombre, poliuretano impermeable, transpirable, a la moda, de gran capacidad, bolsa de viaje para laptop</t>
+          <t>Escala 1/18 36390 - Ducati Desmosedici GP22 Moto GP - # 89 Jorge Martin</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2042,33 +2016,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Patrocinado</t>
+          <t>General</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>STARTWO Fundas para motocicleta, impermeables, para almacenamiento al aire libre, resistentes, para todas las estaciones, universal, serie Adventure y la mayoría de motocicletas, 96 x 43 x 55</t>
+          <t>Kayme Funda protectora para motocicleta 300D impermeable para exteriores, resistente a la lluvia y al polvo, con orificio de bloqueo, ajuste universal Harley Davidson, Indian, BMW Cruiser Touring,</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4.5 de 5 estrellas</t>
+          <t>4.4 de 5 estrellas</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -2079,51 +2053,51 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>STARTWO Fundas para motocicleta, impermeables, para almacenamiento al aire libre, resistentes, para todas las estaciones, universal, serie Adventure y la mayoría de motocicletas, 96 x 43 x 55</t>
+          <t>Moto Tag (1 paquete)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4.5 de 5 estrellas</t>
+          <t>3.3 de 5 estrellas</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Patrocinado</t>
+          <t>General</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Paquete de 2 cargadores de batería inteligentes totalmente automáticos de 6 V 12 V para automóvil, marina, motocicleta, cortacésped</t>
+          <t>Juego de 4 calcetas de goma para ruedas con cuerda, resistentes para remolques de viaje, cámper, plantas de aire pequeñas, automóviles, motocicletas y camiones, 4 paquetes, 8 pulgadas de largo</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4.5 de 5 estrellas</t>
+          <t>4.7 de 5 estrellas</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -2131,13 +2105,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Paquete de 2 cargadores de batería inteligentes totalmente automáticos de 6 V 12 V para automóvil, marina, motocicleta, cortacésped</t>
+          <t>Kayme Funda para motocicleta 300D impermeable al aire libre, resistente a la lluvia y al polvo, lona protectora para motocicleta con orificio de bloqueo para todas las estaciones, ajuste universal</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2146,10 +2120,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -2157,25 +2131,25 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Funda universal para motocicleta para todas las estaciones, resistente 420D, cubierta solar para motocicleta, cubierta de protección solar con agujeros de bloqueo, reflectante nocturna y bolsa</t>
+          <t>Kayme Funda protectora para motocicleta pequeña 300D para exteriores, resistente a la lluvia, al polvo, con orificio de bloqueo, para todas las estaciones, ajuste universal de 125 CC, scooter de 150</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5.0 de 5 estrellas</t>
+          <t>4.5 de 5 estrellas</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D14" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2183,13 +2157,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Reemplazo de pantalla para Motorola Moto G Stylus 4G 2023 Original, XT2317 Pantalla LCD táctil digitalizador Asamblea piezas de reparación con kit (negro con marco)</t>
+          <t>New LCD Touch Screen Digitizer Assembly for Moto G24/G24 Power/G04/G04S/E14 [6.56 inch] with Technical Repair Tools Kit- Fingerprint Function</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2198,7 +2172,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -2209,51 +2183,51 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Nuevo LCD táctil digitalizador Asamblea para Moto G34 [6.5 pulgadas] XT2363-2 con kit de herramientas de reparación técnica - función de huella dactilar</t>
+          <t>Outerman - Cargador de batería de automóvil, 12 V, 24 V, de plomo-ácido, pantalla LCD, mantenimiento automático de batería inteligente con reparación de pulso para motocicleta, automóvil, barco,</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.1 de 5 estrellas</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Patrocinado</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>VXW Guantes de motocicleta para hombres y mujeres, guantes de motocicleta con pantalla táctil de dedo completo, guantes de motociclista de alta protección para BMX ATV Road Racing</t>
+          <t>Tubos interiores de motocicleta resistentes 100/90-19 (4.10 x 19), tubos interiores de goma butílica de 0.118 pulgadas de grosor, tubos resistentes a pellizcos y pinchazos, vástagos de válvula TR4,</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4.5 de 5 estrellas</t>
+          <t>4.4 de 5 estrellas</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2261,48 +2235,48 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sistema de monitoreo de presión de neumáticos TPMS para motocicleta con 2 sensores externos Pantalla LCD Alarma de temperatura de neumáticos de motocicleta</t>
+          <t>Cargador de batería inteligente de 5 amperios de alta eficiencia de 6 V y 12 V, mantenedor de batería, cargador de goteo y desulfatador para baterías de automóvil, motocicleta, ATV, litio</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3.6 de 5 estrellas</t>
+          <t>4.5 de 5 estrellas</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Patrocinado</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Moto Tag (1 paquete)</t>
+          <t>para Motorola Moto One 5G Ace Reemplazo de pantalla con marco para Moto One 5G Ace XT2113-1 XT2113-2 Pantalla LCD táctil digitalizador Asamblea con herramientas de pieza de reparación</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3.3 de 5 estrellas</t>
+          <t>4.0 de 5 estrellas</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2313,25 +2287,25 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Juego de 4 calcetas de goma para ruedas con cuerda, resistentes para remolques de viaje, cámper, plantas de aire pequeñas, automóviles, motocicletas y camiones, 4 paquetes, 8 pulgadas de largo</t>
+          <t>NEVERLAND Funda impermeable para motocicleta para exteriores, color negro, resistente, con logotipo reflectante, agujero de bloqueo, vendaje, bolsa de almacenamiento, protege contra el polvo, los</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4.7 de 5 estrellas</t>
+          <t>4.5 de 5 estrellas</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2339,22 +2313,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Kayme Funda protectora para motocicleta pequeña 300D para exteriores, resistente a la lluvia, al polvo, con orificio de bloqueo, para todas las estaciones, ajuste universal de 125 CC, scooter de 150</t>
+          <t>X AUTOHAUX Funda impermeable para motocicleta 2 en 1, protector para Harley Street Glide FLHX Road Glide FLTRX 1250 Sportster S Touring Modelos Negro Azul XXL</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4.5 de 5 estrellas</t>
+          <t>2.9 de 5 estrellas</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2365,48 +2339,48 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>New LCD Touch Screen Digitizer Assembly for Moto G24/G24 Power/G04/G04S/E14 [6.56 inch] with Technical Repair Tools Kit- Fingerprint Function</t>
+          <t>Outerman - Cargador de batería de automóvil, 12 V, 24 V, de plomo-ácido, pantalla LCD, mantenimiento automático de batería inteligente con reparación de pulso para motocicleta, automóvil, barco,</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.1 de 5 estrellas</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Patrocinado</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Outerman - Cargador de batería de automóvil, 12 V, 24 V, de plomo-ácido, pantalla LCD, mantenimiento automático de batería inteligente con reparación de pulso para motocicleta, automóvil, barco,</t>
+          <t>Carbman Carburador TTR50 para Yamaha TTR50 Carb Dirt Bike 2006-2011 TTR 50cc motocicleta 1P6-E4101-10</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4.1 de 5 estrellas</t>
+          <t>4.5 de 5 estrellas</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2417,25 +2391,25 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FANAUE Soporte de teléfono de motocicleta para clip de espejo retrovisor, base de perno en U, ajustable en 360° con almohadillas de goma y correa integradas, compatible con soportes RAM (CC-06T)</t>
+          <t>Guantes de motocicleta para mujer, guantes de ciclismo para deportes al aire libre en la carretera/todoterreno/motocicleta de montaña, motocicleta de motocross</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4.5 de 5 estrellas</t>
+          <t>3.6 de 5 estrellas</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2443,48 +2417,48 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Moto DVD - Trials Training Techniques and Cross Training Tools</t>
+          <t>Guantes de motocicleta para mujer, guantes de ciclismo para deportes al aire libre en la carretera/todoterreno/motocicleta de montaña, motocicleta de motocross</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4.3 de 5 estrellas</t>
+          <t>3.6 de 5 estrellas</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Patrocinado</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Cargador de batería inteligente de 5 amperios de alta eficiencia de 6 V y 12 V, mantenedor de batería, cargador de goteo y desulfatador para baterías de automóvil, motocicleta, ATV, litio</t>
+          <t>Guantes de motocicleta para mujer, guantes de ciclismo para deportes al aire libre en la carretera/todoterreno/motocicleta de montaña, motocicleta de motocross</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4.5 de 5 estrellas</t>
+          <t>3.6 de 5 estrellas</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2495,25 +2469,25 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Tubos interiores de motocicleta resistentes 100/90-19 (4.10 x 19), tubos interiores de goma butílica de 0.118 pulgadas de grosor, tubos resistentes a pellizcos y pinchazos, vástagos de válvula TR4,</t>
+          <t>Guantes de motocicleta para mujer, guantes de ciclismo para deportes al aire libre en la carretera/todoterreno/motocicleta de montaña, motocicleta de motocross</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4.4 de 5 estrellas</t>
+          <t>3.6 de 5 estrellas</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2527,45 +2501,45 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Kenu Airframe Pro | Soporte universal de ventilación para teléfono para iPhone, Android, Pixel, Samsung, LG, Moto, Huawei, Nokia y teléfonos inteligentes grandes a XL</t>
+          <t>Reemplazo de pantalla LCD para Motorola G Play 2024 6.5 "XT2413 Asamblea pantalla LCD táctil digitalizador herramientas</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4.3 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Patrocinado</t>
+          <t>General</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>NEVERLAND Funda para motocicleta, funda para scooter 300D, impermeable, resistente para todas las estaciones, cubierta universal para motocicleta con reflexión nocturna, agujeros de bloqueo, bolsa de</t>
+          <t>Guantes de motocicleta para mujer, guantes de ciclismo para deportes al aire libre en la carretera/todoterreno/motocicleta de montaña, motocicleta de motocross</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4.4 de 5 estrellas</t>
+          <t>3.6 de 5 estrellas</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -2573,29 +2547,29 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>para Motorola Moto One 5G Ace Reemplazo de pantalla con marco para Moto One 5G Ace XT2113-1 XT2113-2 Pantalla LCD táctil digitalizador Asamblea con herramientas de pieza de reparación</t>
+          <t>Funda impermeable para motocicleta al aire libre, 300D resistente, resistente a los rayos UV y a la lluvia, resistente al viento con 3 hebillas, se adapta a la mayoría de motocicletas,</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4.0 de 5 estrellas</t>
+          <t>4.7 de 5 estrellas</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Patrocinado</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2605,7 +2579,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>para Motorola Moto One 5G Ace Reemplazo de pantalla con marco para Moto One 5G Ace XT2113-1 XT2113-2 Pantalla LCD táctil digitalizador Asamblea con herramientas de pieza de reparación</t>
+          <t>Guantes de piel de cabra de piel de cabra para motocicleta, moto, deportes de motor, pantalla táctil, para hombres y mujeres, modelo</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2614,7 +2588,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2625,155 +2599,155 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Outerman - Cargador de batería de automóvil, 12 V, 24 V, de plomo-ácido, pantalla LCD, mantenimiento automático de batería inteligente con reparación de pulso para motocicleta, automóvil, barco,</t>
+          <t>Motocross de las Naciones 2014</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4.1 de 5 estrellas</t>
+          <t>4.0 de 5 estrellas</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D32" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Patrocinado</t>
+          <t>General</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>NEVERLAND Funda impermeable para motocicleta para exteriores, color negro, resistente, con logotipo reflectante, agujero de bloqueo, vendaje, bolsa de almacenamiento, protege contra el polvo, los</t>
+          <t>Funda para Motorola razr+ Plus 2024, protector de pantalla integrado y protección de bisagra y piel sintética ultrafina de piel sintética mate a prueba de golpes, funda para teléfono inteligente</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4.5 de 5 estrellas</t>
+          <t>4.4 de 5 estrellas</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Patrocinado</t>
+          <t>General</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Guantes de motocicleta para mujer, guantes de ciclismo para deportes al aire libre en la carretera/todoterreno/motocicleta de montaña, motocicleta de motocross</t>
+          <t>Paw Patrol, Moto Pups Wildcat Deluxe Pull Back - Vehículo de motocicleta con función de ruedas y figura de juguete</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3.6 de 5 estrellas</t>
+          <t>4.7 de 5 estrellas</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Patrocinado</t>
+          <t>General</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Guantes de motocicleta para mujer, guantes de ciclismo para deportes al aire libre en la carretera/todoterreno/motocicleta de montaña, motocicleta de motocross</t>
+          <t>Head Case Designs Funda de piel con licencia oficial de Harry Potter Platform 9 3/4 Locations Typography compatible con Motorola Moto G Stylus 5G (2022)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3.6 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D35" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Patrocinado</t>
+          <t>General</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Espejos retrovisores de motocicleta Espejo lateral de motocicleta apto para modelos de 0.315 in y 0.394 in Espejo universal</t>
+          <t>Maisto Kawasaki Ninja H2R Moto – Escala 1:12 – Increíblemente detallada réplica fundida a presión modelo de motocicleta coleccionable</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5.0 de 5 estrellas</t>
+          <t>4.4 de 5 estrellas</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Patrocinado</t>
+          <t>General</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Guantes de motocicleta para mujer, guantes de ciclismo para deportes al aire libre en la carretera/todoterreno/motocicleta de montaña, motocicleta de motocross</t>
+          <t>Funda impermeable para motocicleta al aire libre, resistente 300D, resistente a los rayos UV y a la lluvia, 3 hebillas resistentes al viento, agujeros de bloqueo duales, incluye bolsa de</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3.6 de 5 estrellas</t>
+          <t>4.7 de 5 estrellas</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2781,25 +2755,25 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Reemplazo de pantalla LCD para Motorola G Play 2024 6.5 "XT2413 Asamblea pantalla LCD táctil digitalizador herramientas</t>
+          <t>Motorola Moto Buds 065 - Verdaderamente inalámbrico, auriculares, aislamiento de ruido y 17 horas de tiempo de reproducción, control táctil en ambos auriculares, resistente al agua IPX4, micrófono ENC</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>3.7 de 5 estrellas</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2807,100 +2781,100 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>NEVERLAND Funda impermeable para motocicleta, para exteriores, fundas de motocicletas, resistentes, medianas, con agujeros de bloqueo, vendaje, bolsa de almacenamiento para Harley Davidson Kawasaki, Yamaha, Honda Grom Suzuki (hasta 86 pulgadas)</t>
+          <t>WAVELIFE Funda impermeable para Motorola Moto G 5G 2024 de cuerpo completo, resistente al agua, funda protectora para teléfono celular, a prueba de golpes, resistente, protección militar contra</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4.3 de 5 estrellas</t>
+          <t>4.2 de 5 estrellas</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Patrocinado</t>
+          <t>General</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Funda impermeable para motocicleta al aire libre, 300D resistente, resistente a los rayos UV y a la lluvia, resistente al viento con 3 hebillas, se adapta a la mayoría de motocicletas,</t>
+          <t>WAVELIFE Funda impermeable para Motorola Moto G 5G 2024 de cuerpo completo, resistente al agua, funda protectora para teléfono celular, a prueba de golpes, resistente, protección militar contra</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4.7 de 5 estrellas</t>
+          <t>4.2 de 5 estrellas</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D40" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Patrocinado</t>
+          <t>General</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>NEVERLAND Funda para motocicleta impermeable para exteriores, fundas de scooter para motocicleta, resistentes, medianas con agujeros de bloqueo, vendaje, bolsa de almacenamiento para Harley Davidson Kawasaki, Yamaha, Honda Grom Suzuki (hasta 86 pulgadas)</t>
+          <t>GRAND PITSTOP Soporte de mantenimiento de motocicleta, soporte de elevación portátil y compacto, altura ajustable para limpieza de cadenas y lubricación, fácil de usar</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4.3 de 5 estrellas</t>
+          <t>4.1 de 5 estrellas</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Patrocinado</t>
+          <t>General</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Guantes de piel de cabra de piel de cabra para motocicleta, moto, deportes de motor, pantalla táctil, para hombres y mujeres, modelo</t>
+          <t>FNTCASE Funda para Motorola Moto G-Power-5G-2025: funda resistente de grado militar para teléfono celular con soporte y funda | Protección de TPU a prueba de golpes Diseño texturizado mate | Protector</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4.0 de 5 estrellas</t>
+          <t>5.0 de 5 estrellas</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -2911,22 +2885,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Funda para Motorola razr+ Plus 2024, protector de pantalla integrado y protección de bisagra y piel sintética ultrafina de piel sintética mate a prueba de golpes, funda para teléfono inteligente</t>
+          <t>para Motorola Moto G Power 2022 Pantalla LCD para Moto G Power 2022 Reemplazo de pantalla G Power 2022 Pantalla LCD XT2165 Asamblea de digitalizador táctil XT2165-5, XT2165-3, XT2165DL Kits de</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4.4 de 5 estrellas</t>
+          <t>4.2 de 5 estrellas</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -2937,22 +2911,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Paw Patrol, Moto Pups Wildcat Deluxe Pull Back - Vehículo de motocicleta con función de ruedas y figura de juguete</t>
+          <t>Funda tipo cartera para Moto G 5G 2025 con tarjetero, cierre magnético de águila y bandera estadounidense y bloqueo RFID, funda de cuero con función atril para Moto G 5G 2025</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4.7 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -2963,103 +2937,103 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Paw Patrol, Moto Pups Wildcat Deluxe Pull Back - Vehículo de motocicleta con función de ruedas y figura de juguete</t>
+          <t>Kewig Portavasos antirrobo para motocicleta, tamaño extra grande, ajustable, para botellas de agua de 1.95 a 3.6 pulgadas de diámetro, soporte para bebidas de motocicleta para cochecito, motocicleta,</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4.7 de 5 estrellas</t>
+          <t>4.5 de 5 estrellas</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Patrocinado</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Head Case Designs Funda de piel con licencia oficial de Harry Potter Platform 9 3/4 Locations Typography compatible con Motorola Moto G Stylus 5G (2022)</t>
+          <t>XYZCTEM Funda de motocicleta – Protección impermeable para exteriores para todas las estaciones – Apto para bicicletas turísticas de 87 pulgadas – Protege contra el polvo, los escombros, la lluvia y el clima (M con logotipo)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.4 de 5 estrellas</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Patrocinado</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Maisto Kawasaki Ninja H2R Moto – Escala 1:12 – Increíblemente detallada réplica fundida a presión modelo de motocicleta coleccionable</t>
+          <t>Correas de amarre para motocicleta, correas de hebilla de leva de 1.5 pulgadas x 10 pies con ganchos en S, bucles suaves integrados, correas de bicicleta de cross resistentes de resistencia a</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4.4 de 5 estrellas</t>
+          <t>4.8 de 5 estrellas</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D47" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Patrocinado</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Funda impermeable para motocicleta al aire libre, resistente 300D, resistente a los rayos UV y a la lluvia, 3 hebillas resistentes al viento, agujeros de bloqueo duales, incluye bolsa de</t>
+          <t>Espejos retrovisores para motocicleta, espejos laterales universales de 0.315 in, 0.394 in, ajustable, giratorio de 360°, soporte de montaje para manillar de calle, motocicleta (0.315 in,</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4.7 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D48" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -3067,22 +3041,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>WAVELIFE Funda impermeable para Motorola Moto G 5G 2024 de cuerpo completo, resistente al agua, funda protectora para teléfono celular, a prueba de golpes, resistente, protección militar contra</t>
+          <t>Funda para Motorola Moto G Play 2024 con 2 protectores de pantalla de vidrio templado, [serie de fundas] clip para cinturón, resistente, resistente, resistente, a prueba de golpes, funda</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4.2 de 5 estrellas</t>
+          <t>4.3 de 5 estrellas</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -3093,22 +3067,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>WAVELIFE Funda impermeable para Motorola Moto G 5G 2024 de cuerpo completo, resistente al agua, funda protectora para teléfono celular, a prueba de golpes, resistente, protección militar contra</t>
+          <t>Motorola Funda protectora resistente para Moto G (2025), color negro, ajuste de precisión, cubierta de absorción de golpes de grado militar para un mejor agarre del teléfono, protección contra caídas</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4.2 de 5 estrellas</t>
+          <t>4.4 de 5 estrellas</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -3119,74 +3093,74 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>GRAND PITSTOP Soporte de mantenimiento de motocicleta, soporte de elevación portátil y compacto, altura ajustable para limpieza de cadenas y lubricación, fácil de usar</t>
+          <t>Soporte de teléfono para motocicleta, soporte de teléfono para bicicleta, antivibraciones y duradero, soporte de teléfono de bicicleta para iPhone 14 Pro Max | 11 Pro Max | Teléfonos</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4.1 de 5 estrellas</t>
+          <t>4.2 de 5 estrellas</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Patrocinado</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Poetic Guardian - Funda para Motorola Moto G Power 5G 2025 [no compatible con la versión 2024], [prueba de caídas de grado militar de 20 pies], [2 marcos frontales] cubierta de cuerpo completo a</t>
+          <t>uxcell Funda para motocicleta para todas las estaciones, impermeable, a prueba de polvo, para exteriores, motocicleta, 180T, XL, tono plateado, negro, para Harley Davidson Sportster 883 1200 Dyna Touring Cruiser</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5.0 de 5 estrellas</t>
+          <t>4.4 de 5 estrellas</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Patrocinado</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Poetic Guardian - Funda para Motorola Moto G Power 5G 2025 [no compatible con la versión 2024], [prueba de caídas de grado militar de 20 pies], [2 marcos frontales] cubierta de cuerpo completo a</t>
+          <t>VEGO Funda para Moto Razr 2024 [no compatible con Razr Plus 2024], con protección de bisagra, protector de pantalla integrado y función atril de cuerpo completo a prueba de golpes para Motorola Razr</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5.0 de 5 estrellas</t>
+          <t>4.3 de 5 estrellas</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -3197,18 +3171,18 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>para Motorola Moto G Power 2022 Pantalla LCD para Moto G Power 2022 Reemplazo de pantalla G Power 2022 Pantalla LCD XT2165 Asamblea de digitalizador táctil XT2165-5, XT2165-3, XT2165DL Kits de</t>
+          <t>Asuwish Funda para teléfono Motorola Moto G Stylus 5G 2024 con protector de pantalla de vidrio templado, soporte de anillo delgado, ranura para tarjeta de crédito G5, para mujeres y hombres, color</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4.2 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -3229,12 +3203,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Motorola Funda protectora resistente para Moto G (2025), color negro, ajuste de precisión, cubierta de absorción de golpes de grado militar para un mejor agarre del teléfono, protección contra caídas</t>
+          <t>NINKI Funda compatible con Motorola Razr 2024 Plus con bisagra protectora, funda de cuero para Moto Razr 2024Plus 5G resistente a los arañazos Protector de pantalla ultra delgada de cuero para Moto</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4.4 de 5 estrellas</t>
+          <t>4.7 de 5 estrellas</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -3255,53 +3229,53 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>VEGO Funda para Moto Razr 2024 [no compatible con Razr Plus 2024], con protección de bisagra, protector de pantalla integrado y función atril de cuerpo completo a prueba de golpes para Motorola Razr</t>
+          <t>Medidor de presión de neumáticos de motocicleta de 60 PSI, calibre mecánico de neumáticos de 2 pulgadas con manguera flexible de 90 grados en ángulo recto, medidores para presión de</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4.3 de 5 estrellas</t>
+          <t>4.5 de 5 estrellas</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Patrocinado</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Onebttl Vaso de vino para regalo de motocicleta, para amantes de las motocicletas, Navidad, cumpleaños, acero inoxidable aislado de 12 onzas / 11.8 fl oz - Biker Babe Biker Chick</t>
+          <t>STENES Sparkle - Funda para teléfono compatible con Moto G Power 5G 2025, elegante, hecha a mano en 3D, con diamantes de imitación, diseño de diamantes de imitación, para niñas y mujeres, color blanco</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>5.0 de 5 estrellas</t>
+          <t>4.0 de 5 estrellas</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Patrocinado</t>
+          <t>General</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3358,7 +3332,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>XYZCTEM Funda de motocicleta – Protección impermeable para exteriores para todas las estaciones – Apto para bicicletas turísticas de 87 pulgadas – Protege contra el polvo, los escombros, la lluvia y el clima (M con logotipo)</t>
+          <t>Soporte de teléfono para bicicleta y motocicleta - Para iPhone 14 (13, Xr, SE, Plus/Max), Samsung Galaxy S22 o cualquier teléfono celular - Soporte universal para manillar para ATV, bicicleta o</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3367,7 +3341,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3378,22 +3352,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kewig Portavasos antirrobo para motocicleta, tamaño extra grande, ajustable, para botellas de agua de 1.95 a 3.6 pulgadas de diámetro, soporte para bebidas de motocicleta para cochecito, motocicleta,</t>
+          <t>Soporte de teléfono para bicicleta y motocicleta - para iPhone 14 Pro (13, 12, SE, Plus/Max), Galaxy S22 o cualquier teléfono celular - Soporte universal para manillar para ATV, bicicleta y</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4.5 de 5 estrellas</t>
+          <t>4.3 de 5 estrellas</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3404,48 +3378,48 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Onebttl Vaso de vino para regalo de motocicleta, para amantes de las motocicletas, Navidad, cumpleaños, acero inoxidable aislado de 12 onzas / 11.8 fl oz - Biker Babe Biker Chick</t>
+          <t>NINKI Funda compatible con Motorola Razr 2024 Plus con protección de bisagra con protección de pantalla incorporada, a prueba de golpes, anticaídas, soporte de carga inalámbrica para Moto Razr 50</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5.0 de 5 estrellas</t>
+          <t>4.4 de 5 estrellas</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Patrocinado</t>
+          <t>General</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Asuwish Funda para teléfono Motorola Moto G Stylus 5G 2024 con protector de pantalla de vidrio templado, soporte de anillo delgado, ranura para tarjeta de crédito G5, para mujeres y hombres, color</t>
+          <t>Casetego Funda compatible con Moto G Stylus 2022 5G/4G, tres capas, resistente, a prueba de golpes, protección completa, policarbonato duro y poliuretano termoplástico suave para Motorala Moto G</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.5 de 5 estrellas</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3456,39 +3430,39 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Espejos retrovisores para motocicleta, espejos laterales universales de 0.315 in, 0.394 in, ajustable, giratorio de 360°, soporte de montaje para manillar de calle, motocicleta (0.315 in,</t>
+          <t>FNTCASE Funda para Motorola Moto G-Power-5G-2025: Funda móvil de protección a prueba de caídas de grado militar con soporte | TPU resistente a prueba de golpes con textura mate | Funda protectora</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.4 de 5 estrellas</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Patrocinado</t>
+          <t>General</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Funda tipo cartera para Moto G 5G 2025 con tarjetero, cierre magnético de águila y bandera estadounidense y bloqueo RFID, funda de cuero con función atril para Moto G 5G 2025</t>
+          <t>STENES Sparkle - Funda para teléfono compatible con Moto G Power 5G 2025, elegante, marco de cristal 3D hecho a mano, diseño de diamantes de imitación, para niñas y mujeres, color rosa</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3497,7 +3471,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -3508,22 +3482,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Funda para Motorola Moto G Play 2024 con 2 protectores de pantalla de vidrio templado, [serie de fundas] clip para cinturón, resistente, resistente, resistente, a prueba de golpes, funda</t>
+          <t>Funda tipo cartera para Motorola Moto G22/E32/E32S con correa cruzada para el hombro de cuero con cremallera para 11+ ranuras para tarjetas, protector de accesorios, funda para teléfono MotoG22</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4.3 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -3534,22 +3508,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Motorola Funda protectora resistente para Moto G (2025), color negro, ajuste de precisión, cubierta de absorción de golpes de grado militar para un mejor agarre del teléfono, protección contra caídas</t>
+          <t>Buleens Funda para Moto G Power 5G 2024, con soporte de anillo y cubierta para cámara, diseño estético, bonito diseño, para mujeres y niñas, diseño floral femenino, funda Kawaii para Motorola G Power</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4.4 de 5 estrellas</t>
+          <t>2.6 de 5 estrellas</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3560,25 +3534,25 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Guantes de moto de motocross, guantes de motocross, ATV MX MTB Off Road Racing Deportes Ciclismo Guante</t>
+          <t>URBANITE Funda protectora resistente a prueba de golpes para Moto G Stylus 5G (2024), de grado militar, con protector de pantalla y soporte (negro)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4.4 de 5 estrellas</t>
+          <t>3.7 de 5 estrellas</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -3586,22 +3560,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NINKI Funda compatible con Motorola Razr 2024 Plus con bisagra protectora, funda de cuero para Moto Razr 2024Plus 5G resistente a los arañazos Protector de pantalla ultra delgada de cuero para Moto</t>
+          <t>Buleens Funda para Moto G Stylus 5G 2024 con soporte de anillo y funda para cámara, diseño estético, bonito diseño, para mujeres y niñas, diseño femenino Kawaii Sun Moon Stars para Motorola G Stylus</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4.7 de 5 estrellas</t>
+          <t>4.3 de 5 estrellas</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3612,48 +3586,48 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Birdz Gafas Oriole acolchadas de seguridad bifocales gafas de motocicleta marco negro lentes humo 2.0 aumento bolsa de transporte</t>
+          <t>Shorogyt Funda tipo cartera para Moto G Stylus 5G 2024 con tarjetero – Funda de piel tipo cartera con función atril de diseño de hongos y calavera con cierre magnético, para mujeres, hombres y niñas,</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4.3 de 5 estrellas</t>
+          <t>4.7 de 5 estrellas</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Patrocinado</t>
+          <t>General</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>STENES Sparkle - Funda para teléfono compatible con Moto G Power 5G 2025, elegante, hecha a mano en 3D, con diamantes de imitación, diseño de diamantes de imitación, para niñas y mujeres, color blanco</t>
+          <t>Funda para Motorola Moto G Power 2025, fuerte magnético compatible con MagSafe, parachoques de bolsa de aire de TPU y carcasa trasera de policarbonato duro antiamarillamiento para Moto G Power</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4.0 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -3664,22 +3638,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Soporte de teléfono para bicicleta y motocicleta - Para iPhone 14 (13, Xr, SE, Plus/Max), Samsung Galaxy S22 o cualquier teléfono celular - Soporte universal para manillar para ATV, bicicleta o</t>
+          <t>Soporte de altavoz portátil para carrito de golf, soporte de correa ajustable para altavoz portátil, soporte de altavoz súper antideslizante para bicicleta/barco/barandilla de motocicleta, accesorio</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4.4 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -3690,48 +3664,48 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Soporte de teléfono para bicicleta y motocicleta - para iPhone 14 Pro (13, 12, SE, Plus/Max), Galaxy S22 o cualquier teléfono celular - Soporte universal para manillar para ATV, bicicleta y</t>
+          <t>URBANITE Funda protectora resistente a prueba de golpes para Moto G Stylus 5G (2024), de grado militar, con protector de pantalla y soporte (negro)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4.3 de 5 estrellas</t>
+          <t>3.7 de 5 estrellas</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Patrocinado</t>
+          <t>General</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NINKI Funda compatible con Motorola Razr 2024 Plus con protección de bisagra con protección de pantalla incorporada, a prueba de golpes, anticaídas, soporte de carga inalámbrica para Moto Razr 50</t>
+          <t>Funda compatible con Motorola Moto G 5G 2025, compatible con Motorola Moto G 5G 2025, funda de piel sintética con cremallera, color negro</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4.4 de 5 estrellas</t>
+          <t>5.0 de 5 estrellas</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -3742,22 +3716,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>FNTCASE Funda para Motorola Moto G-Power-5G-2025: Funda móvil de protección a prueba de caídas de grado militar con soporte | TPU resistente a prueba de golpes con textura mate | Funda protectora</t>
+          <t>Funda magnética para Motorola Moto G 2025, translúcida mate compatible con Magsafe [protección de grado militar] con protector de pantalla a prueba de golpes para Moto G 2025 - Morado</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4.4 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -3768,13 +3742,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Casetego Funda compatible con Moto G Stylus 2022 5G/4G, tres capas, resistente, a prueba de golpes, protección completa, policarbonato duro y poliuretano termoplástico suave para Motorala Moto G</t>
+          <t>Funda magnética para Motorola Moto G 5G 2024, translúcida mate, compatible con Magsafe [protección de grado militar] con protector de pantalla a prueba de golpes para Moto G 5G 2024 azul</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3783,7 +3757,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -3794,13 +3768,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>STENES Sparkle - Funda para teléfono compatible con Moto G Power 5G 2025, elegante, marco de cristal 3D hecho a mano, diseño de diamantes de imitación, para niñas y mujeres, color rosa</t>
+          <t>Compatible con correas de Moto Watch 120, 0.78 pulgadas, 0.86 pulgadas, correa de silicona con hebilla de metal compatible con Moto 70, 100, 120, 360 3ª generación 2020 Smartwatch</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3809,7 +3783,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -3820,39 +3794,39 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Funda para teléfono Motorola Moto-G Pure: Moto G-Power 2022 Funda resistente de grado militar de protección dura agarre a prueba de golpes | Funda protectora duradera con diseño de armadura de doble</t>
+          <t>Funda para Moto G5G 2025 Funda protectora tipo cartera de piel sintética con tarjetero y cierre magnético, color turquesa</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4.4 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D20" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Patrocinado</t>
+          <t>General</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Funda tipo cartera para Motorola Moto G22/E32/E32S con correa cruzada para el hombro de cuero con cremallera para 11+ ranuras para tarjetas, protector de accesorios, funda para teléfono MotoG22</t>
+          <t>Funda magnética para Motorola Moto G 2025, translúcida mate, compatible con Magsafe [protección de grado militar] con protector de pantalla a prueba de golpes para Moto G 2025-Azul</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3861,7 +3835,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -3872,22 +3846,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Shorogyt Funda tipo cartera para Moto G Stylus 5G 2024 con tarjetero – Funda de piel tipo cartera con función atril de diseño de hongos y calavera con cierre magnético, para mujeres, hombres y niñas,</t>
+          <t>Compatible con correas de Moto Watch 120, 0.78 pulgadas, 0.86 pulgadas, correa de silicona con hebilla de metal compatible con Moto 70, 100, 120, 360 3ª generación 2020 Smartwatch</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4.7 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -3898,13 +3872,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Funda para Motorola Moto G Power 2025, fuerte magnético compatible con MagSafe, parachoques de bolsa de aire de TPU y carcasa trasera de policarbonato duro antiamarillamiento para Moto G Power</t>
+          <t>Chofit Pulsera compatible con Motorola Moto Watch 120, correa de silicona de liberación rápida, correas deportivas para Motorola Moto Watch 120 Smartwatch</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3913,10 +3887,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -3930,19 +3904,19 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Buleens Funda para Moto G Stylus 5G 2024 con soporte de anillo y funda para cámara, diseño estético, bonito diseño, para mujeres y niñas, diseño femenino Kawaii Sun Moon Stars para Motorola G Stylus</t>
+          <t>Chofit Pulsera compatible con Motorola Moto Watch 120, correa de silicona de liberación rápida, correas deportivas para Motorola Moto Watch 120 Smartwatch</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4.3 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -3956,16 +3930,16 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Buleens Funda para Moto G Power 5G 2024, con soporte de anillo y cubierta para cámara, diseño estético, bonito diseño, para mujeres y niñas, diseño floral femenino, funda Kawaii para Motorola G Power</t>
+          <t>Funda compatible con Motorola Moto G 5G 2024 con protector de pantalla de vidrio templado, soporte de anillo de metal, soporte de silicona para Motorola Moto G 5G (2024), color negro</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2.6 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -3976,22 +3950,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Shorogyt Funda tipo cartera para Moto G Stylus 5G 2024 con tarjetero – Funda de piel tipo cartera con función atril de diseño de hongos y calavera con cierre magnético, para mujeres, hombres y niñas,</t>
+          <t>for Motorola Moto G Power 2025/Moto G Play 2025 Case, Defender Case Heavy Duty Shockproof Dustproof 3 in 1 Rugged Protective Phone Cover for Moto G Power 2025/G Play 2025 (Black)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4.7 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -4002,25 +3976,25 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>URBANITE Funda protectora resistente a prueba de golpes para Moto G Stylus 5G (2024), de grado militar, con protector de pantalla y soporte (negro)</t>
+          <t>Funda protectora resistente para Motorola Moto G 5G 2025, a prueba de golpes, a prueba de polvo, 3 en 1, para Moto G 5G 2025 (negro)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3.7 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D27" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -4028,65 +4002,65 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Paquete de 3 cables de carga USB A a USB C de 6 pies para iPad Pro 12.9 para Samsung Galaxy S20/S10/S9/S8 Plus USB a USB C, Note 20/10/9/8 tipo C, cargador tipo C, cable largo tipo C para Moto G7/G8</t>
+          <t>for Motorola Moto G Power 2025/Moto G Play 2025 Case, Defender Case Heavy Duty Shockproof Dustproof 3 in 1 Rugged Protective Phone Cover for Moto G Power 2025/G Play 2025 (Black)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4.1 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D28" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Patrocinado</t>
+          <t>General</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Paquete de 4 fundas MOTO con llavero, soportes de silicona impermeables para moto, accesorios de protección para buscadores de artículos GPS, arañazos, a prueba de golpes y polvo (negro +</t>
+          <t>2 fundas impermeables para asiento de motocicleta, cojín de asiento de motocicleta, cubierta negra a prueba de polvo, protector universal de asiento flexible para motocicleta, funda de</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>3.8 de 5 estrellas</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Patrocinado</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Paquete de 4 fundas MOTO con llavero, soportes de silicona impermeables para moto, accesorios de protección para buscadores de artículos GPS, arañazos, a prueba de golpes y polvo (negro +</t>
+          <t>Funda para Moto G 2025, hermosa protección contra caídas de girasoles a prueba de golpes, funda protectora de cuerpo completo de TPU resistente a los arañazos para Motorola Moto G 2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4095,7 +4069,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -4106,22 +4080,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Funda compatible con Motorola Moto G 5G 2025, compatible con Motorola Moto G 5G 2025, funda de piel sintética con cremallera, color verde</t>
+          <t>Jeylly Funda para Motorola Razr 2024, Moto Razr 2024 con [2 unidades] Protector de pantalla de doble capa resistente a prueba de golpes, funda protectora para Razr 2024, color negro</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5.0 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -4132,22 +4106,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Funda compatible con Motorola Moto G 5G 2025, compatible con Motorola Moto G 5G 2025, funda de piel sintética con cremallera, color verde</t>
+          <t>Paquete de 4 fundas para Moto Tag con funda impermeable, funda de silicona suave para soporte de Moto Tag, cubierta protectora de cuerpo completo para rastreador de mototag, buscador de llaves de</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5.0 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -4158,65 +4132,65 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Calentador de cuello de motocicleta para invierno, polaina, máscara de media cara, resistente al viento y mantiene el calor para hombres y mujeres</t>
+          <t>Funda para Moto G Stylus 5G 2024, tarjetero con bloqueo RFID, múltiples ranuras para teléfono, funda protectora de cuero de doble capa, fundas con tapa con soporte (negro)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4.6 de 5 estrellas</t>
+          <t>5.0 de 5 estrellas</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Patrocinado</t>
+          <t>General</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Lievermo Dirt Bike Goggles, Motorcycle Goggles 2 Pack ATV Goggles Riding Goggles Ski Goggles Windproof Glasses Racing Goggles</t>
+          <t>Funda para Moto G85 5G, Motorola S50 Neo Wallet Case, Flor Cuero Flip Tarjeta de Crédito Soporte Teléfono Funda para Motorola Moto G85 5G Oro Rosa</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4.3 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D34" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Patrocinado</t>
+          <t>General</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Funda magnética para Motorola Moto G 2025, translúcida mate, compatible con Magsafe [protección de grado militar] con protector de pantalla a prueba de golpes para Moto G 2025-Azul</t>
+          <t>Ailiber Funda compatible con Motorola Moto G 2025, Motorola G 5G 2025 con clip para cinturón con protector de pantalla, soporte giratorio, funda delgada a prueba de golpes, color negro</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4225,7 +4199,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -4236,13 +4210,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Funda magnética para Motorola Moto G 2025, translúcida mate compatible con Magsafe [protección de grado militar] con protector de pantalla a prueba de golpes para Moto G 2025 - Morado</t>
+          <t>Protector de pantalla de privacidad para Motorola Razr+ 2023/Motorola Razr Plus 2023, paquete de 2 películas de poliuretano termoplástico suave de privacidad, [resistente a los arañazos],</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4251,7 +4225,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -4262,22 +4236,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Funda magnética para Motorola Moto G 5G 2024, translúcida mate, compatible con Magsafe [protección de grado militar] con protector de pantalla a prueba de golpes para Moto G 5G 2024 azul</t>
+          <t>Ailiber Funda compatible con Motorola Moto G 2025, Motorola G 5G 2025 con clip para cinturón con protector de pantalla, soporte giratorio, funda delgada a prueba de golpes, color negro</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4.5 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -4288,13 +4262,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Compatible con correas de Moto Watch 120, 0.78 pulgadas, 0.86 pulgadas, correa de silicona con hebilla de metal compatible con Moto 70, 100, 120, 360 3ª generación 2020 Smartwatch</t>
+          <t>Compatible with Motorola Moto G 5G 2025 Case, Wood Grain Leather Case with Card Holder and Window, Magnetic Flip Cover for Motorola Moto G 5G 2025 (6.7”)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4303,7 +4277,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -4314,13 +4288,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Funda para Moto G5G 2025 Funda protectora tipo cartera de piel sintética con tarjetero y cierre magnético, color turquesa</t>
+          <t>Funda compatible con Motorola Moto G Power 5G 2025, funda de cuero de grano de madera con tarjetero y ventana, cubierta magnética con tapa para Motorola Moto G Power 5G 2025 (6.8 pulgadas)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4329,7 +4303,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -4340,13 +4314,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Chofit Pulsera compatible con Motorola Moto Watch 120, correa de silicona de liberación rápida, correas deportivas para Motorola Moto Watch 120 Smartwatch</t>
+          <t>Funda compatible con Motorola Moto G Power 2025 5G con protector de pantalla de vidrio templado, funda protectora plegable de silicona TPU a prueba de golpes para Moto G Power 2025 5G, color negro</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4355,10 +4329,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D40" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -4366,22 +4340,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Funda protectora resistente para Motorola Moto G 5G 2025, a prueba de golpes, a prueba de polvo, 3 en 1, para Moto G 5G 2025 (negro)</t>
+          <t>Spigen Liquid Air - Funda diseñada para Moto G 5G (2024) [protección de grado militar], color negro mate</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.0 de 5 estrellas</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -4392,13 +4366,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>for Motorola Moto G Power 2025/Moto G Play 2025 Case, Defender Case Heavy Duty Shockproof Dustproof 3 in 1 Rugged Protective Phone Cover for Moto G Power 2025/G Play 2025 (Black)</t>
+          <t>Funda compatible con Motorola Moto G 5G 2025 / Moto G Play 4G 2025 con protector de pantalla de vidrio templado, funda protectora plegable a prueba de golpes para Moto G 5G 2025 - Negro</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4407,7 +4381,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -4418,13 +4392,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Funda protectora resistente para Motorola Moto G 5G 2025, a prueba de golpes, a prueba de polvo, 3 en 1, para Moto G 5G 2025 (negro)</t>
+          <t>SunStory Funda para Motorola Moto G 5G 2024 con protector de pantalla HD y cubierta de cámara deslizante y soporte de anillo giratorio, [grado militar] funda de teléfono para Moto G 5G 2024 (morado)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4433,7 +4407,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -4444,13 +4418,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Funda compatible con Motorola Moto G 5G 2024 con protector de pantalla de vidrio templado, soporte de anillo de metal, soporte de silicona para Motorola Moto G 5G (2024), color negro</t>
+          <t>Janmitta Funda compatible con Moto G Power 5G 2025, funda integrada para lente de cámara deslizante + protector de pantalla + soporte de anillo de dedo, resistente a prueba de golpes, funda protectora</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4459,7 +4433,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4470,22 +4444,22 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Funda para Moto G 2025, hermosa protección contra caídas de girasoles a prueba de golpes, funda protectora de cuerpo completo de TPU resistente a los arañazos para Motorola Moto G 2025</t>
+          <t>Funda protectora rígida a prueba de golpes de doble capa para Moto G54 con protector de pantalla de vidrio templado, híbrida resistente, cuerpo completo, antiarañazos, antideslizante, color</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>5.0 de 5 estrellas</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4496,22 +4470,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Funda para Moto G Power 2025, funda protectora de TPU de cuerpo completo resistente a los arañazos para Motorola Moto G Power 2025</t>
+          <t>Spigen Liquid Air - Funda diseñada para Moto G 5G (2024) [protección de grado militar], color negro mate</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.0 de 5 estrellas</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4522,13 +4496,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Funda para Moto G Power 2025, funda protectora de TPU de cuerpo completo resistente a los arañazos para Motorola Moto G Power 2025</t>
+          <t>Motorola Protector de pantalla para Moto G Power (2025), resistente vidrio templado 9H, antihuellas, antiarañazos, antimanchas</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -4537,7 +4511,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -4548,13 +4522,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Jeylly Funda para Motorola Razr 2024, Moto Razr 2024 con protector de pantalla, ajuste delgado, resistente, a prueba de caídas, cuerpo completo, a prueba de golpes, funda protectora para Motorola Razr</t>
+          <t>Janmitta Funda compatible con Moto G Power 5G 2025, funda integrada para lente de cámara deslizante + protector de pantalla + soporte de anillo de dedo, resistente a prueba de golpes, funda protectora</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4563,7 +4537,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -4574,22 +4548,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Jeylly Funda para Motorola Razr 2024, Moto Razr 2024 con protector de pantalla, ajuste delgado, resistente, a prueba de caídas, cuerpo completo, a prueba de golpes, funda protectora para Motorola Razr</t>
+          <t>RMOCR Funda protectora para Moto G 5G 2025, de cuerpo completo, resistente, a prueba de golpes, con correa de cordón, protector de pantalla de vidrio templado, rojo</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>3.9 de 5 estrellas</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -4600,18 +4574,18 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Funda para Motorola Moto G Stylus 5G 2024 con cubierta deslizante para cámara, protector de pantalla HD [prueba de caídas de grado militar] Funda protectora con soporte de anillo magnético para Moto G</t>
+          <t>Paquete de 4 fundas para Moto Tag con funda impermeable, funda de silicona suave para soporte de Moto Tag, cubierta protectora de cuerpo completo para rastreador de mototag, buscador de llaves de</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4.4 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -4632,7 +4606,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Funda compatible con Motorola Moto G 5G 2025 / Moto G Play 4G 2025 con protector de pantalla de vidrio templado, funda protectora plegable a prueba de golpes para Moto G 5G 2025 - Negro</t>
+          <t>22mm 7/8'' Motorcycle Bar End Plug Sliders Universal Handlebar Grips Bar Ends Caps Replacement for Honda Yamaha Suziku Kawasaki BMW Motorbike Dirt Bike(Red)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4658,12 +4632,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Motorola Protector de pantalla para Moto G Power (2025), resistente vidrio templado 9H, antihuellas, antiarañazos, antimanchas</t>
+          <t>Funda giratoria de piel sintética para teléfono celular, compatible con Galaxy S24 Ultra S23 Ultra A12 A13 A14 A23 A32 A42 Moto G Power Play Stylus Pure OnePlus 12 12R 11 Pixel 9 Pro XL Xiaomi 13 Pro</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.1 de 5 estrellas</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -4684,7 +4658,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>22mm 7/8'' Motorcycle Bar End Plug Sliders Universal Handlebar Grips Bar Ends Caps Replacement for Honda Yamaha Suziku Kawasaki BMW Motorbike Dirt Bike(Red)</t>
+          <t>Funda para Moto G Power 5G 2025 con cubierta deslizante para cámara y protector de pantalla HD [grado militar de 16 pies, probada en caídas], funda protectora con anillo magnético para Motorola G</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4710,16 +4684,16 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Spigen Liquid Air - Funda diseñada para Moto G 5G (2024) [protección de grado militar], color negro mate</t>
+          <t>BESINPO Funda magnética para Motorola Moto G Power 5G 2024 con protector de pantalla templado, translúcida mate a prueba de golpes, funda protectora para Moto G Power 5G 2024 de 6.7 pulgadas, color</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4.0 de 5 estrellas</t>
+          <t>4.2 de 5 estrellas</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -4730,22 +4704,22 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>RMOCR Funda protectora para Moto G 5G 2025, de cuerpo completo, resistente, a prueba de golpes, con correa de cordón, protector de pantalla de vidrio templado, rojo</t>
+          <t>Funda rígida para Moto Razr 2024, transparente, delgada, rígida, híbrida, a prueba de golpes, plegable, antiarañazos, antiarañazos, cubierta protectora para Moto Razr 50</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3.9 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -4756,13 +4730,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Paquete de 4 fundas para Moto Tag con funda impermeable, funda de silicona suave para soporte de Moto Tag, cubierta protectora de cuerpo completo para rastreador de mototag, buscador de llaves de</t>
+          <t>[2+2 piezas Protector de pantalla para Motorola Moto G85 Vidrio Templado [Desbloqueo de huellas dactilares] [Antiarañazos] [Dureza 9H] [HD] [Sin burbujas] Película protectora de lente de</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4771,7 +4745,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -4782,22 +4756,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Funda protectora rígida a prueba de golpes de doble capa para Moto G54 con protector de pantalla de vidrio templado, híbrida resistente, cuerpo completo, antiarañazos, antideslizante, color</t>
+          <t>TJS Funda compatible con Motorola Moto G Power 5G 2025, con protector de pantalla de vidrio templado, soporte magnético híbrido de doble capa, a prueba de golpes, funda resistente para Moto G Power 5G</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>5.0 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -4808,22 +4782,22 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Janmitta Funda compatible con Moto G Power 5G 2025, funda integrada para lente de cámara deslizante + protector de pantalla + soporte de anillo de dedo, resistente a prueba de golpes, funda protectora</t>
+          <t>Funda para teléfono móvil Motorola Moto G04/Moto G24/Moto E14 de silicona líquida, lindo patrón de chica, funda protectora de gel suave de TPU con protección de cámara, carcasa a prueba de golpes con</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>5.0 de 5 estrellas</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -4834,22 +4808,22 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Paquete de 4 fundas para Moto Tag con funda impermeable, funda de silicona suave para soporte de Moto Tag, cubierta protectora de cuerpo completo para rastreador de mototag, buscador de llaves de</t>
+          <t>Funda para Moto G60, XT2135-1 con protector de pantalla de vidrio templado, cuerpo completo, transparente, flexible, con protección de diseño floral, fundas para Motorola Moto G60 G 60 (árbol</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>5.0 de 5 estrellas</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -4860,7 +4834,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -4874,7 +4848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4917,19 +4891,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>XYZ Funda protectora para Motorola Moto G 5G 2024 con soporte de anillo, para mujeres y niñas, con diseño de corazón de amor, de lujo, para Moto G 5G 2024, color negro</t>
+          <t>Jiunai Funda para Moto G Power 2025 resistente contra caídas, cubierta de puerto de doble capa, sin pantalla, resistente al polvo, resistente, mate, minimalista, funda para teléfono celular para</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4.0 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -4937,13 +4911,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Funda compatible con Motorola Moto G 5G 2025 / Moto G Play 4G 2025 con protector de pantalla de vidrio templado, funda protectora plegable a prueba de golpes para Moto G 5G 2025 - Negro</t>
+          <t>Asuwish Funda de teléfono para Motorola Moto G04/G04s/G24/E14 4G con protector de pantalla de vidrio templado y accesorios para celda, goma de silicona TPU delgada GO4 G 04 04s 24 E 14 fibra de</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4952,7 +4926,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4963,22 +4937,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SunStory Funda para Motorola Moto G 5G 2024 con protector de pantalla HD y cubierta de cámara deslizante y soporte de anillo giratorio, [grado militar] funda de teléfono para Moto G 5G 2024 (morado)</t>
+          <t>BESINPO Funda magnética para Motorola Moto G Power 5G 2024 con protector de pantalla templado, translúcida mate a prueba de golpes, funda protectora para Moto G Power 5G 2024 de 6.7 pulgadas, color</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.2 de 5 estrellas</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4989,22 +4963,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Funda para Moto G85 5G, Motorola S50 Neo Wallet Case, Flor Cuero Flip Tarjeta de Crédito Soporte Teléfono Funda para Motorola Moto G85 5G Oro Rosa</t>
+          <t>Funda protectora para Motorola Moto 5G 2025 con 2 protectores de pantalla, magnética, translúcida mate, de grado militar, para niñas y mujeres, patrón de flores, funda protectora para Moto G 5G</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>3.0 de 5 estrellas</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -5015,22 +4989,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Janmitta Funda compatible con Moto G Power 5G 2025, funda integrada para lente de cámara deslizante + protector de pantalla + soporte de anillo de dedo, resistente a prueba de golpes, funda protectora</t>
+          <t>Funda protectora para Motorola Moto 5G 2025 con 2 protectores de pantalla, magnética, translúcida mate, de grado militar, para niñas y mujeres, patrón de flores, funda protectora para Moto G 5G</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>3.0 de 5 estrellas</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -5041,96 +5015,96 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>for Moto G 5G 2025 Case, with HD Screen Protector [Military Grade Drop Tested] Heavy-Duty Tough Rugged Shockproof Protective Case for Motorola Moto G 5G 2025, Green</t>
+          <t>Guantes de motocicleta de motocross, guantes de motocross, México guantes de moto MTB ATV MX Off Road Racing Deportes Ciclismo guante</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.5 de 5 estrellas</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Patrocinado</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Funda protectora para Motorola Moto G Power 5G 2025 con 2 protectores de pantalla, magnética, translúcida, mate, de grado militar, para niñas y mujeres (verde)</t>
+          <t>Guantes de motocicleta de motocross, guantes de motocross, México guantes de moto MTB ATV MX Off Road Racing Deportes Ciclismo guante</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.5 de 5 estrellas</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Patrocinado</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Funda para Moto G Power 5G 2025 con cubierta deslizante para cámara y protector de pantalla HD [grado militar de 16 pies, probada en caídas], funda protectora con anillo magnético para Motorola G</t>
+          <t>Guantes de motocicleta de motocross, guantes de motocross, México guantes de moto MTB ATV MX Off Road Racing Deportes Ciclismo guante</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.5 de 5 estrellas</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Patrocinado</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BESINPO Funda magnética para Motorola Moto G Power 5G 2024 con protector de pantalla templado, translúcida mate a prueba de golpes, funda protectora para Moto G Power 5G 2024 de 6.7 pulgadas, color</t>
+          <t>Funda de teléfono para Motorola Moto G75 5G, con protector de pantalla, translúcido mate, parte trasera dura, a prueba de golpes, delgada, para Motorola G75 5G, color negro</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4.2 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -5151,7 +5125,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[2+2 piezas Protector de pantalla para Motorola Moto G85 Vidrio Templado [Desbloqueo de huellas dactilares] [Antiarañazos] [Dureza 9H] [HD] [Sin burbujas] Película protectora de lente de</t>
+          <t>Funda compatible con Motorola Moto G75 5G, con cubierta deslizante para lente de cámara compatible con Motorola Moto G75 5G, color azul</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -5177,12 +5151,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TJS Funda compatible con Motorola Moto G Power 5G 2025, con protector de pantalla de vidrio templado, soporte magnético híbrido de doble capa, a prueba de golpes, funda resistente para Moto G Power 5G</t>
+          <t>Funda de protección contra caídas compatible con Motorola Moto G85 5G, funda magnética compatible con Motorola Moto G85 5G XT2427-3 / Moto S50 Neo 5G XT2427-4, funda negra</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>5.0 de 5 estrellas</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -5203,16 +5177,16 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ATUMP Funda para Motorola Edge 2024 con [2 piezas] protector de pantalla HD, [grado militar a prueba de golpes] y cubierta de cámara deslizante, funda protectora con anillo giratorio de 360° para Moto</t>
+          <t>Paquete de 3+2 protectores de pantalla para Moto G Stylus 2024 5G, pantalla de 6.7 pulgadas, 3 protectores de pantalla y 2 protectores de lente de cámara, bordes curvos 2.5D, película de</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4.2 de 5 estrellas</t>
+          <t>4.0 de 5 estrellas</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -5223,22 +5197,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Asuwish Funda de teléfono para Motorola Moto G04/G04s/G24/E14 4G con protector de pantalla de vidrio templado y accesorios para celda, goma de silicona TPU delgada GO4 G 04 04s 24 E 14 fibra de</t>
+          <t>LeYi Funda para teléfono Moto G Stylus 5G 2022: con protector de pantalla de vidrio templado [2 unidades] Soporte de anillo giratorio de 360° con soporte magnético, borde chapado en oro rosa para G</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.2 de 5 estrellas</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -5249,22 +5223,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TJS Funda compatible con Motorola Moto G 5G 2025, con protector de pantalla de vidrio templado, soporte magnético híbrido de doble capa, a prueba de golpes, funda resistente para Moto G 5G (gris)</t>
+          <t>Funda para teléfono Motorola Moto G85 5G con protector de pantalla de vidrio, cubierta protectora de cámara deslizante integrada, funda protectora de cuerpo completo militar, color negro</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.2 de 5 estrellas</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -5275,22 +5249,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Funda para teléfono móvil Motorola Moto G04/Moto G24/Moto E14 de silicona líquida, lindo patrón de chica, funda protectora de gel suave de TPU con protección de cámara, carcasa a prueba de golpes con</t>
+          <t>Funda para Moto G Play 2025 con tarjetero y soporte para tarjetas, a prueba de golpes, de piel sintética, magnética, con correa para la muñeca, cubierta abatible para Motorola Moto G Play</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5.0 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -5301,22 +5275,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BESINPO Funda magnética para Moto G 5G 2024 con protector de pantalla templado, (compatible con MagSafe) a prueba de golpes, translúcida mate, para Motorola Moto G 5G 2024, color negro</t>
+          <t>Ailiber Funda para teléfono Moto G Power 2025, Motorola Moto G Power 2025 con protector de pantalla, protector de parachoques de TPU de doble capa, resistente a los arañazos de silicona resistente a</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4.2 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -5327,13 +5301,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TJS Funda compatible con Motorola Moto G Power 5G 2025, con protector de pantalla de vidrio templado, soporte magnético híbrido de doble capa, a prueba de golpes, funda resistente para Moto G Power 5G</t>
+          <t>Funda para teléfono Motorola Moto G75 5G con protector de pantalla de vidrio, [2 unidades] Funda protectora de cámara deslizante integrada, funda protectora de cuerpo completo militar</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -5342,7 +5316,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -5353,22 +5327,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Funda para Moto G60, XT2135-1 con protector de pantalla de vidrio templado, cuerpo completo, transparente, flexible, con protección de diseño floral, fundas para Motorola Moto G60 G 60 (árbol</t>
+          <t>Dretal Funda para Motorola Moto-G-Power-5G-2025 con 2 protectores de pantalla, para niñas y mujeres, diseño de corazón de amor femenino de lujo, funda suave dorada, protección para cámara, parachoques</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5.0 de 5 estrellas</t>
+          <t>2.0 de 5 estrellas</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -5379,22 +5353,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Funda protectora para Motorola Moto 5G 2025 con 2 protectores de pantalla, magnética, translúcida mate, de grado militar, para niñas y mujeres, patrón de flores, funda protectora para Moto G 5G</t>
+          <t>Dretal Funda para Motorola Moto-G-Power-5G-2025 con 2 protectores de pantalla, para niñas y mujeres, diseño de corazón de amor femenino de lujo, funda suave dorada, protección para cámara, parachoques</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3.0 de 5 estrellas</t>
+          <t>2.0 de 5 estrellas</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -5405,22 +5379,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Funda protectora para Motorola Moto 5G 2025 con 2 protectores de pantalla, magnética, translúcida mate, de grado militar, para niñas y mujeres, patrón de flores, funda protectora para Moto G 5G</t>
+          <t>Funda tipo cartera para Moto G 5G 2024, con diseño de mariposa en relieve, soporte de piel sintética, ranuras para tarjetas de crédito, correa de muñeca, funda protectora para Motorola Moto G</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3.0 de 5 estrellas</t>
+          <t>4.5 de 5 estrellas</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -5431,22 +5405,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Funda de teléfono para Motorola Moto G75 5G, con protector de pantalla, translúcido mate, parte trasera dura, a prueba de golpes, delgada, para Motorola G75 5G, color negro</t>
+          <t>Funda para Moto E20, Moto E30, Moto E40, TPU suave + patrón de mármol IMD brillante anillo Kickstand caso para niñas y mujeres, funda de protección de cámara y pantalla para Moto E20 BKZH</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.5 de 5 estrellas</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -5457,13 +5431,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Funda compatible con Motorola Moto G75 5G, con cubierta deslizante para lente de cámara compatible con Motorola Moto G75 5G, color azul</t>
+          <t>Ailiber Funda para Moto G 2025 con protector de pantalla, funda para teléfono Motorola G 5G 2025 de doble capa, esquinas a prueba de golpes, parachoques de poliuretano termoplástico (TPU), silicona</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -5472,7 +5446,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -5483,25 +5457,25 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Funda de protección contra caídas compatible con Motorola Moto G85 5G, funda magnética compatible con Motorola Moto G85 5G XT2427-3 / Moto S50 Neo 5G XT2427-4, funda negra</t>
+          <t>BESINPO Funda magnética para Moto G Power 0.18 oz 2024 con protector de pantalla de vidrio templado, [compatible con MagSafe], a prueba de golpes, funda mate translúcida militar para Motorola G Power</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5.0 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -5515,16 +5489,16 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Funda de protección contra caídas compatible con Motorola Moto G85 5G, funda magnética compatible con Motorola Moto G85 5G XT2427-3 / Moto S50 Neo 5G XT2427-4, funda negra</t>
+          <t>Funda para Motorola Moto G Stylus 5G 2024 + protector de pantalla de vidrio templado, funda transparente para teléfono con esquinas reforzadas a prueba de golpes, funda de silicona TPU flexible</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>5.0 de 5 estrellas</t>
+          <t>4.4 de 5 estrellas</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -5535,48 +5509,48 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Funda para Moto G Play 2025 con tarjetero y soporte para tarjetas, a prueba de golpes, de piel sintética, magnética, con correa para la muñeca, cubierta abatible para Motorola Moto G Play</t>
+          <t>CLEEFUN Cable USB C [6 pies, paquete de 5], cable USB A a tipo C, cable de carga rápida C trenzado para iPhone 15 Pro Max/Pro/Plus, para Samsung Galaxy S24 S23 S22 S21 S20 Ultra S10, Moto, Pixel</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.7 de 5 estrellas</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Patrocinado</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Funda para teléfono Motorola Moto G75 5G con protector de pantalla de vidrio, [2 unidades] Funda protectora de cámara deslizante integrada, funda protectora de cuerpo completo militar</t>
+          <t>[Paquete de 3+3] Protector de pantalla para Moto G Play 2024 + protector de lente de cámara, vidrio templado 9H, antiarañazos, fácil instalación, sin burbujas, protector de pantalla HD para Motorola</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.0 de 5 estrellas</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -5587,13 +5561,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Paquete de 3+2 protectores de pantalla para Moto G Stylus 2024 5G, pantalla de 6.7 pulgadas, 3 protectores de pantalla y 2 protectores de lente de cámara, bordes curvos 2.5D, película de</t>
+          <t>Paquete de 3 + 3 protectores de pantalla para Moto G Stylus 5G 2024 + protector de lente de cámara, vidrio templado 9H, antiarañazos, fácil instalación, sin burbujas, protector de pantalla HD para</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5602,7 +5576,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -5613,22 +5587,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LeYi Funda para teléfono Moto G Stylus 5G 2022: con protector de pantalla de vidrio templado [2 unidades] Soporte de anillo giratorio de 360° con soporte magnético, borde chapado en oro rosa para G</t>
+          <t>Funda diseñada para Motorola Moto G Power 2025, funda abatible para mujer con soporte de piel sintética en relieve, ranuras para tarjetas de crédito, correa de muñeca para Moto G Play 2025 (negro)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4.2 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -5639,25 +5613,25 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Funda para teléfono Motorola Moto G85 5G con protector de pantalla de vidrio, cubierta protectora de cámara deslizante integrada, funda protectora de cuerpo completo militar, color negro</t>
+          <t>Funda para Motorola Moto G Power 5G 2025, paquete de 2 protectores de pantalla de vidrio templado, funda de silicona TPU suave a prueba de golpes, color verde medianoche</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4.2 de 5 estrellas</t>
+          <t>4.0 de 5 estrellas</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -5671,19 +5645,19 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Funda compatible con Motorola Moto G75, compatible con Motorola Moto G75 con soporte integrado magnético para automóvil, a prueba de golpes y anticaídas, color azul</t>
+          <t>Funda para Motorola Moto G Power 5G 2025, paquete de 2 protectores de pantalla de vidrio templado, funda de silicona TPU suave a prueba de golpes, color verde medianoche</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5.0 de 5 estrellas</t>
+          <t>4.0 de 5 estrellas</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -5697,19 +5671,19 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>LeYi Funda para G-Power-2025, Moto G Power 2025 con protector de pantalla y protector de lente de cámara, funda protectora resistente con soporte magnético para Moto G Power 2025, azul</t>
+          <t>BESINPO Funda magnética para Moto G Power 0.18 oz 2024 con protector de pantalla de vidrio templado, [compatible con MagSafe], a prueba de golpes, funda mate translúcida militar para Motorola G Power</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4.6 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>10</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -5717,13 +5691,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Power Volume Button Ribbon Flex Cable Replacement for Moto G Power 2024 XT2415 - Power（On Off）/Volume Button/Side Buttons Key Replacement Set</t>
+          <t>Funda para Motorola Moto G Power 2025 + protector de pantalla de vidrio templado, funda transparente para teléfono con esquinas reforzadas a prueba de golpes, cubierta de silicona TPU flexible</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -5749,12 +5723,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>TJS Funda compatible con Motorola Moto G Fast con protector de pantalla de vidrio templado, soporte magnético de soporte magnético resistente contra caídas (negro)</t>
+          <t>Funda para Motorola Moto G75 5G 2024 Funda de teléfono con protector de pantalla de vidrio, Soporte oculto plegable giratorio de 360°/Soporte de silicona TPU Funda protectora a prueba de</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4.4 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -5775,12 +5749,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Paquete de 3 protectores de pantalla frontal para Motorola Razr 2024, protector de pantalla de vidrio templado, curvado en 3D, antiarañazos, sin burbujas, protector de pantalla compatible con fundas</t>
+          <t>10 Pcs Motorcycle Windshield Bolts Screws Kit Aluminum Alloy Motorbike Windscreen Body Mounting Bolts Nuts M5 Universal Fairing Fasteners Screw(Black)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4.8 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -5801,12 +5775,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>FNTCASE Funda para Motorola Moto G-5G-2025: funda protectora de doble capa resistente para teléfono celular, a prueba de golpes, con textura antideslizante, protección militar resistente de 6.7</t>
+          <t>Funda para Moto G24 4G, Motorola G04 4G XT2423-1 XT2421-2, fibra de carbono a prueba de golpes, delgada, de silicona, resistente, suave, cubierta trasera de TPU para Motorola Moto G24 4G, azul</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4.4 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -5827,12 +5801,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Funda para Motorola Moto G Power 5G 2025/Moto G Play 2025 con 2 protectores de pantalla, funda de grado militar a prueba de golpes, resistente y resistente, con soporte, color morado</t>
+          <t>Ailiber Funda para teléfono Motorola Moto G 2025, protector de pantalla para Moto G 2025, doble capa de protección a prueba de golpes, parachoques de silicona antideslizante, funda militar resistente</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4.6 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -5853,7 +5827,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Lamcase Funda compatible con Motorola G Stylus 2020, resistente a los golpes, híbrida de policarbonato duro, goma TPU suave, tres capas, resistente contra caídas, para Motorola Moto G Stylus 2020, oro</t>
+          <t>Funda magnética para Motorola Moto G Power 5G 2025, G Power 2025 con protector de pantalla [compatible con MagSafe], funda protectora delgada a prueba de golpes para Moto G Power 2025, color negro</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5879,12 +5853,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Funda para Moto G24 4G, Motorola G04 4G XT2423-1 XT2421-2, fibra de carbono a prueba de golpes, delgada, de silicona, resistente, suave, cubierta trasera de TPU para Motorola Moto G24 4G, azul</t>
+          <t>Funda compatible con Motorola Moto G 5G 2025 con protector de pantalla HD, resistente y de cuerpo completo, protección a prueba de golpes, color negro</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.5 de 5 estrellas</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -5905,12 +5879,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Paquete de 3 + 3 protectores de pantalla para Moto G Stylus 5G 2024 + protector de lente de cámara, vidrio templado 9H, antiarañazos, fácil instalación, sin burbujas, protector de pantalla HD para</t>
+          <t>Funda para Motorola Moto G Power 5G 2025/Moto G Play 2025 con 2 protectores de pantalla, funda de grado militar a prueba de golpes, resistente y resistente, con soporte, color morado</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4.0 de 5 estrellas</t>
+          <t>4.6 de 5 estrellas</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -5931,12 +5905,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Funda para Motorola Moto G Stylus 5G 2024 + protector de pantalla de vidrio templado, funda transparente para teléfono con esquinas reforzadas a prueba de golpes, funda de silicona TPU flexible</t>
+          <t>Janmitta Funda compatible con Motorola Moto G Power 5G 2025 con protector de pantalla, resistente a prueba de golpes, funda protectora de cuerpo completo integrado con soporte de anillo de metal</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4.4 de 5 estrellas</t>
+          <t>3.5 de 5 estrellas</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -5957,38 +5931,38 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CLEEFUN Cable USB C [6 pies, paquete de 5], cable USB A a tipo C, cable de carga rápida C trenzado para iPhone 15 Pro Max/Pro/Plus, para Samsung Galaxy S24 S23 S22 S21 S20 Ultra S10, Moto, Pixel</t>
+          <t>Power Volume Button Ribbon Flex Cable Replacement for Moto G Power 2024 XT2415 - Power（On Off）/Volume Button/Side Buttons Key Replacement Set</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4.7 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>10</v>
       </c>
       <c r="D42" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Patrocinado</t>
+          <t>General</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>[Paquete de 3+3] Protector de pantalla para Moto G Play 2024 + protector de lente de cámara, vidrio templado 9H, antiarañazos, fácil instalación, sin burbujas, protector de pantalla HD para Motorola</t>
+          <t>Foluu Funda para Motorola Razr 2023 [No compatible con Razr Plus 2023], Moto Razr 2023 Funda transparente para teléfono de policarbonato duro, parachoques trasero protector a prueba de golpes</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4.0 de 5 estrellas</t>
+          <t>4.4 de 5 estrellas</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -6009,7 +5983,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Funda para Motorola Moto G84 5G, Motorola Moto G84 Funda para teléfono con protector de pantalla integrado, cubierta trasera delgada transparente a prueba de golpes, resistente, funda</t>
+          <t>Funda para Moto G Power 5G 2024: funda protectora de doble capa resistente para teléfono celular, a prueba de golpes, con protector de pantalla, protección militar resistente - Motorola Moto G Power</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6035,19 +6009,19 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Funda para teléfono Motorola Moto G85 con protector de pantalla de vidrio, soporte de anillo giratorio de 360 ° Kickstand/Stand Silicona TPU Funda protectora a prueba de golpes para Motorola Moto G85</t>
+          <t>Para Moto Edge 50 Pro Funda De Teléfono Con Titular De La Tarjeta Y Estuche De Soporte De Anillo Para Motorola Edge 50 Pro Cover - Negro</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3.0 de 5 estrellas</t>
+          <t>5.0 de 5 estrellas</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>10</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -6055,18 +6029,18 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Redes de carga para casco de motocicleta de 16 x 16 pulgadas, red elástica de almacenamiento con 6 ganchos ajustados de 2 x 2 pulgadas, correa de equipaje de malla, organizador de expansión,</t>
+          <t>TJS Funda compatible con Motorola Moto G Fast con protector de pantalla de vidrio templado, soporte magnético de soporte magnético resistente contra caídas (negro)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4.5 de 5 estrellas</t>
+          <t>4.4 de 5 estrellas</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -6077,7 +6051,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Patrocinado</t>
+          <t>General</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -6087,12 +6061,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Funda con clip para cinturón compatible con Motorola Moto G Stylus 5G (2024) de 6.7 pulgadas, con clip de cinturón incorporado a prueba de golpes, funda para Moto G Stylus 2024 5G, color negro</t>
+          <t>Funda para teléfono Motorola Moto G85 con protector de pantalla de vidrio, soporte de anillo giratorio de 360 ° Kickstand/Stand Silicona TPU Funda protectora a prueba de golpes para Motorola Moto G85</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>3.0 de 5 estrellas</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -6113,19 +6087,19 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Para Moto Edge 50 Pro Funda De Teléfono Con Titular De La Tarjeta Y Estuche De Soporte De Anillo Para Motorola Edge 50 Pro Cover - Negro</t>
+          <t>Funda tipo cartera para Moto G 5G 2024, con diseño de mariposa en relieve, soporte de piel sintética, ranuras para tarjetas de crédito, correa de muñeca, funda protectora para Motorola Moto G</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5.0 de 5 estrellas</t>
+          <t>4.5 de 5 estrellas</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>10</v>
       </c>
       <c r="D48" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -6133,18 +6107,18 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Funda para Moto E20, Moto E30, Moto E40, TPU suave + patrón de mármol IMD brillante anillo Kickstand caso para niñas y mujeres, funda de protección de cámara y pantalla para Moto E20 BKZH</t>
+          <t>Paquete de 2 fundas de teléfono con estampado de guepardo para Motorola Moto G Play 2024 de 6.5 pulgadas, diseño de leopardo de lujo, silicona suave, TPU a prueba de golpes, funda protectora</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4.5 de 5 estrellas</t>
+          <t>4.0 de 5 estrellas</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -6165,12 +6139,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Ailiber Funda para teléfono Motorola Moto G 2025, protector de pantalla para Moto G 2025, doble capa de protección a prueba de golpes, parachoques de silicona antideslizante, funda militar resistente</t>
+          <t>Lamcase Funda compatible con Motorola G Stylus 2020, resistente a los golpes, híbrida de policarbonato duro, goma TPU suave, tres capas, resistente contra caídas, para Motorola Moto G Stylus 2020, oro</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.3 de 5 estrellas</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -6191,12 +6165,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>10 Pcs Motorcycle Windshield Bolts Screws Kit Aluminum Alloy Motorbike Windscreen Body Mounting Bolts Nuts M5 Universal Fairing Fasteners Screw(Black)</t>
+          <t>SunStory Funda para Motorola Moto G 5G 2024 con protector de pantalla HD, cubierta de cámara deslizante y soporte, Motorola Moto G 5G 2024 [grado militar] Funda para Moto G 5G 2024 (negro)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.3 de 5 estrellas</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -6217,12 +6191,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Foluu Funda para Motorola Razr 2023 [No compatible con Razr Plus 2023], Moto Razr 2023 Funda transparente para teléfono de policarbonato duro, parachoques trasero protector a prueba de golpes</t>
+          <t>Funda para Motorola Moto G75 5G 2024 Funda de teléfono con protector de pantalla de vidrio, Soporte oculto plegable giratorio de 360°/Soporte de silicona TPU Funda protectora a prueba de</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4.4 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -6243,12 +6217,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Funda para Moto G Power 5G 2024: funda protectora de doble capa resistente para teléfono celular, a prueba de golpes, con protector de pantalla, protección militar resistente - Motorola Moto G Power</t>
+          <t>for Motorola Moto G 5G 2025 case, Phone Case Silicone Black with Rose Pattern Design Slim Shockproof Soft TPU Girls Women Protective Cover Skin for Motorola Moto G 5G 2025 6.6". Rose</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4.4 de 5 estrellas</t>
+          <t>3.6 de 5 estrellas</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -6269,12 +6243,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Funda tipo cartera para Moto G 5G 2024, con diseño de mariposa en relieve, soporte de piel sintética, ranuras para tarjetas de crédito, correa de muñeca, funda protectora para Motorola Moto G</t>
+          <t>Funda de diseño para Moto G Stylus 5G 2024: transparente con diseño TPU suave de cuatro esquinas contra caídas Absorción de impactos Slim Embossed Patrón cubierta protectora (10)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4.5 de 5 estrellas</t>
+          <t>4.8 de 5 estrellas</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -6295,12 +6269,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Paquete de 3 protectores de pantalla frontal para Motorola Razr 2024, protector de pantalla de vidrio templado, curvado en 3D, antiarañazos, sin burbujas, protector de pantalla compatible con fundas</t>
+          <t>LeYi Funda para G-Power-2025, Moto G Power 2025 con protector de pantalla y protector de lente de cámara, funda protectora resistente con soporte magnético para Moto G Power 2025, azul</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4.8 de 5 estrellas</t>
+          <t>4.6 de 5 estrellas</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -6321,19 +6295,19 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Funda para Motorola Moto G Power 5G 2025, paquete de 2 protectores de pantalla de vidrio templado, funda de silicona TPU suave a prueba de golpes, color rojo</t>
+          <t>Funda tipo cartera para Moto G Play 2024, ranuras para tarjetero, correa para muñeca, protección interior de TPU, soporte de piel sintética para Moto G Play (2024) (negro)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4.0 de 5 estrellas</t>
+          <t>4.3 de 5 estrellas</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>10</v>
       </c>
       <c r="D56" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -6341,18 +6315,18 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Ailiber Funda para Moto G 2025 con protector de pantalla, funda para teléfono Motorola G 5G 2025 de doble capa, esquinas a prueba de golpes, parachoques de poliuretano termoplástico (TPU), silicona</t>
+          <t>Funda compatible con Motorola Moto G Stylus 5G 2024 con protector de pantalla HD, resistente, cuerpo completo, a prueba de golpes, protección de grado militar (verde oscuro mate)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.4 de 5 estrellas</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -6368,32 +6342,6 @@
       </c>
       <c r="F57" t="n">
         <v>10</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Funda para Motorola Moto G Power 5G 2025, paquete de 2 protectores de pantalla de vidrio templado, funda de silicona TPU suave a prueba de golpes, color rojo</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>4.0 de 5 estrellas</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>10</v>
-      </c>
-      <c r="D58" t="n">
-        <v>9</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -6407,7 +6355,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6450,38 +6398,38 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BESINPO Funda magnética para Moto G Power 0.18 oz 2024 con protector de pantalla de vidrio templado, [compatible con MagSafe], a prueba de golpes, funda mate translúcida militar para Motorola G Power</t>
+          <t>Redes de carga para casco de motocicleta de 16 x 16 pulgadas, red elástica de almacenamiento con 6 ganchos ajustados de 2 x 2 pulgadas, correa de equipaje de malla, organizador de expansión,</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.5 de 5 estrellas</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Patrocinado</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FNTCASE Funda para Motorola Moto G-5G-2025: funda protectora de doble capa resistente para teléfono celular, a prueba de golpes, con textura antideslizante, protección militar resistente de 6.7</t>
+          <t>Funda de teléfono para Moto G Stylus 5G 2024 [Funda de soporte oculto de astronauta 6D con correa de cordón, silicona suave, a prueba de golpes, color blanco</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4.4 de 5 estrellas</t>
+          <t>3.5 de 5 estrellas</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -6502,12 +6450,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Funda con clip para cinturón compatible con Motorola Moto G Stylus 5G (2024) de 6.7 pulgadas, con clip de cinturón incorporado a prueba de golpes, funda para Moto G Stylus 2024 5G, color negro</t>
+          <t>Funda para Motorola Moto G84 5G, Motorola Moto G84 Funda para teléfono con protector de pantalla integrado, cubierta trasera delgada transparente a prueba de golpes, resistente, funda</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.4 de 5 estrellas</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -6528,12 +6476,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Funda para Motorola Moto G75 5G 2024 Funda de teléfono con protector de pantalla de vidrio, Soporte oculto plegable giratorio de 360°/Soporte de silicona TPU Funda protectora a prueba de</t>
+          <t>Paquete de 3 protectores de pantalla frontal para Motorola Razr 2024, protector de pantalla de vidrio templado, curvado en 3D, antiarañazos, sin burbujas, protector de pantalla compatible con fundas</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.8 de 5 estrellas</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -6554,12 +6502,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SunStory Funda para Motorola Moto G 5G 2024 con protector de pantalla HD, cubierta de cámara deslizante y soporte, Motorola Moto G 5G 2024 [grado militar] Funda para Moto G 5G 2024 (negro)</t>
+          <t>FNTCASE Funda para Motorola Moto G-5G-2025: funda protectora de doble capa resistente para teléfono celular, a prueba de golpes, con textura antideslizante, protección militar resistente de 6.7</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4.3 de 5 estrellas</t>
+          <t>4.4 de 5 estrellas</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -6580,12 +6528,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Funda para Motorola Moto G Power 2025 + protector de pantalla de vidrio templado, funda transparente para teléfono con esquinas reforzadas a prueba de golpes, cubierta de silicona TPU flexible</t>
+          <t>Funda para Moto G Stylus 5G 2024, con protector de pantalla [probada contra caídas de grado militar], funda protectora resistente a prueba de golpes para Motorola G Stylus 5G 2024, color morado</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.4 de 5 estrellas</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -6606,12 +6554,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>for Motorola Moto G 5G 2025 case, Phone Case Silicone Black with Rose Pattern Design Slim Shockproof Soft TPU Girls Women Protective Cover Skin for Motorola Moto G 5G 2025 6.6". Rose</t>
+          <t>WILLONE Paquete de 2 protectores de pantalla para Motorola Edge 2024, 2 protectores de pantalla EPU, reparación automática de arañazos, desbloqueo en poco tiempo, antiarañazos, compatible con fundas,</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3.6 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -6632,12 +6580,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Funda tipo cartera para Moto G Play 2024, ranuras para tarjetero, correa para muñeca, protección interior de TPU, soporte de piel sintética para Moto G Play (2024) (negro)</t>
+          <t>YZB Funda magnética para Motorola Moto G Stylus 5G 2025 [compatible con MagSafe], acabado mate translúcido, resistente a los arañazos y a prueba de golpes, funda protectora delgada (cota)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4.3 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -6684,12 +6632,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>YZB Funda magnética para Motorola Moto G Stylus 5G 2025 [compatible con MagSafe], acabado mate translúcido, resistente a los arañazos y a prueba de golpes, funda protectora delgada (cota)</t>
+          <t>Funda tipo cartera para Moto G Stylus 5G 2024, ranuras para tarjetas con bloqueo RFID, funda protectora de piel sintética con tapa abatible, correa para la muñeca, funda de teléfono para</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.4 de 5 estrellas</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -6710,12 +6658,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>WILLONE Paquete de 2 protectores de pantalla para Motorola Edge 2024, 2 protectores de pantalla EPU, reparación automática de arañazos, desbloqueo en poco tiempo, antiarañazos, compatible con fundas,</t>
+          <t>Funda tipo cartera para Moto G Stylus 5G 2024, ranuras para tarjetas con bloqueo RFID, funda protectora de piel sintética con tapa abatible, correa para la muñeca, funda de teléfono para</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.4 de 5 estrellas</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -6736,12 +6684,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Funda para Moto G Stylus 5G 2024, con protector de pantalla [probada contra caídas de grado militar], funda protectora resistente a prueba de golpes para Motorola G Stylus 5G 2024, color morado</t>
+          <t>Funda para Moto G 5G 2025 con cubierta deslizante para cámara y protector de pantalla HD [grado militar de 16 pies probada en caídas], anillo magnético con función atril para Motorola Moto G 5G 2025,</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4.4 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -6762,7 +6710,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Funda tipo cartera para Moto G Stylus 5G 2024, ranuras para tarjetas con bloqueo RFID, funda protectora de piel sintética con tapa abatible, correa para la muñeca, funda de teléfono para</t>
+          <t>Funda para Moto G Stylus 5G 2024, [probada contra caídas de grado militar] con protector de pantalla, funda protectora de doble capa resistente para teléfono celular, antideslizante, a prueba de</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -6788,16 +6736,16 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Funda tipo cartera para Moto G Stylus 5G 2024, ranuras para tarjetas con bloqueo RFID, funda protectora de piel sintética con tapa abatible, correa para la muñeca, funda de teléfono para</t>
+          <t>Paquete de 2 protectores de pantalla 3D compatibles con Moto G85/Edge 50 Fusion, película de vidrio templado 3D de cobertura completa 9H, resistente a los arañazos, sin burbujas, para Moto</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4.4 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -6808,22 +6756,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Funda para Moto G Stylus 5G 2024, [probada contra caídas de grado militar] con protector de pantalla, funda protectora de doble capa resistente para teléfono celular, antideslizante, a prueba de</t>
+          <t>Funda para Moto G Play 2025, Motorola G 5G 2025 transparente con protector de pantalla integrado, unisex, a prueba de golpes, flexible, TPU, ajuste delgado, transparente, transparente (morado)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4.4 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -6834,44 +6782,44 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Funda para Motorola Edge 2024, con cubierta para lente de cámara, protector de pantalla HD, [grado militar], soporte para automóvil, soporte híbrido de policarbonato duro, TPU suave, a prueba de</t>
+          <t>Paquete de 1 funda para Motoral Moto Tag, soporte portátil de piel sintética con llavero, funda protectora compatible con Moto Tag</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4.4 de 5 estrellas</t>
+          <t>4.3 de 5 estrellas</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Patrocinado</t>
+          <t>General</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Paquete de 2 protectores de pantalla 3D compatibles con Moto G85/Edge 50 Fusion, película de vidrio templado 3D de cobertura completa 9H, resistente a los arañazos, sin burbujas, para Moto</t>
+          <t>FNTCASE Funda para Motorola Moto G-5G-2025: Funda protectora magnética translúcida mate delgada para teléfono celular, a prueba de golpes, antideslizante, antihuellas, dura y resistente (6.7</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.3 de 5 estrellas</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -6892,12 +6840,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Paquete de 1 funda para Motoral Moto Tag, soporte portátil de piel sintética con llavero, funda protectora compatible con Moto Tag</t>
+          <t>Funda para Moto G 5G 2025/G Play 4G 2025, compatible con 2 protectores de pantalla, parachoques de esquina reforzado, funda delgada a prueba de golpes, transparente</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4.3 de 5 estrellas</t>
+          <t>5.0 de 5 estrellas</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -6918,12 +6866,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Funda para Moto G Play 2025, Motorola G 5G 2025 transparente con protector de pantalla integrado, unisex, a prueba de golpes, flexible, TPU, ajuste delgado, transparente, transparente (morado)</t>
+          <t>Paquete de 3 protectores de pantalla para Moto G Stylus 5G 2025 + [3 unidades] Protector de vidrio templado para lente de cámara Motorola G Stylus 5G, dureza 9H, compatible con desbloqueo de</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.3 de 5 estrellas</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -6944,12 +6892,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Funda para Motorola Moto Edge 2024, delgada y ligera, cubierta de cristal de policarbonato duro, funda de protección suave a prueba de golpes para Motorola Moto Edge 2024 (gris transparente)</t>
+          <t>for Moto G 5G 2025 Case, with HD Screen Protector [Military Grade Drop Tested] Heavy-Duty Tough Rugged Shockproof Protective Case for Motorola Moto G 5G 2025, Black</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4.8 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -6970,19 +6918,19 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Real Extreme Moto Stunt 3D</t>
+          <t>Funda para Moto G 5G 2024, [probada contra caídas de grado militar] con protector de pantalla, funda protectora de doble capa resistente para teléfono celular, antideslizante, a prueba de golpes, para</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.1 de 5 estrellas</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6990,18 +6938,18 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Funda para Motorola Moto G Power 2025, compatible con 2 protectores de pantalla, parachoques de esquina reforzado, funda delgada a prueba de golpes, transparente</t>
+          <t>Funda para Moto G 5G 2025, con cubierta para lente de cámara, protector de pantalla HD, [grado militar], soporte de automóvil con función atril a prueba de golpes, funda protectora para Motorola</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>5.0 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -7022,7 +6970,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Paquete de 3 protectores de pantalla para Moto G Stylus 5G 2025 + [3 unidades] Protector de vidrio templado para lente de cámara Motorola G Stylus 5G, dureza 9H, compatible con desbloqueo de</t>
+          <t>Funda para Motorola Moto Buds/Buds+ Auriculares inalámbricos Cubierta de protección de cuerpo completo de silicona suave con llavero Accesorios para auriculares Funda Carcasa (azul)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -7048,7 +6996,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Funda para Motorola Moto G Power 2025, compatible con 2 protectores de pantalla, parachoques de esquina reforzado, funda delgada a prueba de golpes, transparente</t>
+          <t>Botón de encendido Llave de volumen Flex Cable Pieza de reparación de repuesto para Motorola Moto G Play 2023 XT2271</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -7074,16 +7022,16 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Funda para Motorola Moto Edge 2024, delgada y ligera, cubierta de cristal de policarbonato duro, funda de protección suave a prueba de golpes para Motorola Moto Edge 2024 (gris transparente)</t>
+          <t>TQLGY Protector de pantalla para Motorola Moto G 5G (2025), vidrio templado 9H, antiarañazos, sin burbujas, compatible con fundas, transparente de alta definición, paquete de 3</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4.8 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -7094,25 +7042,25 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FNTCASE Funda para Motorola Moto G-5G-2025: Funda protectora magnética translúcida mate delgada para teléfono celular, a prueba de golpes, antideslizante, antihuellas, dura y resistente (6.7</t>
+          <t>Funda para Moto G Power 2025: con protector de pantalla, absorción de golpes, funda protectora de goma TPU flexible para Moto G Power 5G 2025 (negro)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4.3 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -7126,16 +7074,16 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LeYi Funda para Moto G Play 4G 2024: Motorola G Play 4G 2024 Funda con silicona líquida suave a prueba de golpes, delgada y antiarañazos para Moto G Play 4G 2024, color morado</t>
+          <t>Paquete de 2 protectores de pantalla para Moto Edge 50, protector de pantalla de vidrio templado completo 3D para Moto Edge 50 3D, ultra resistente, sin burbujas, protector de pantalla para</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4.5 de 5 estrellas</t>
+          <t>4.4 de 5 estrellas</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -7146,22 +7094,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Funda para Moto G 5G 2025, con cubierta para lente de cámara, protector de pantalla HD, [grado militar], soporte de automóvil con función atril a prueba de golpes, funda protectora para Motorola</t>
+          <t>Funda de TPU transparente para Moto G75 5G a prueba de golpes de grado militar. Ultrafina a prueba de caídas y ultra flexible. Para Motorola G75 5G</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.4 de 5 estrellas</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -7172,22 +7120,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Funda para Motorola Moto Buds/Buds+ Auriculares inalámbricos Cubierta de protección de cuerpo completo de silicona suave con llavero Accesorios para auriculares Funda Carcasa (azul)</t>
+          <t>TQLGY Screen Protector for Motorola Moto G Power 5G (2025), 9H Tempered Glass, Anti-Scratch, Bubble Free, Case Friendly, HD Clear, 3-Pack</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4.3 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -7198,22 +7146,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Botón de encendido Llave de volumen Flex Cable Pieza de reparación de repuesto para Motorola Moto G Play 2023 XT2271</t>
+          <t>Paquete de 2 protectores de pantalla para Moto Edge 50, protector de pantalla de vidrio templado completo 3D para Moto Edge 50 3D, ultra resistente, sin burbujas, protector de pantalla para</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5.0 de 5 estrellas</t>
+          <t>4.4 de 5 estrellas</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -7224,13 +7172,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Funda para Moto G Power 2025: con protector de pantalla, absorción de golpes, funda protectora de goma TPU flexible para Moto G Power 5G 2025 (negro)</t>
+          <t>Funda para Motorola Moto G Power 2025, TPU suave transparente antiamarilleo, compatible con carga inalámbrica, bolsa de aire de 4 esquinas ultra delgada, protección a prueba de golpes para Moto</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -7242,7 +7190,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -7250,18 +7198,18 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Paquete de 2 protectores de pantalla para Moto Edge 50, protector de pantalla de vidrio templado completo 3D para Moto Edge 50 3D, ultra resistente, sin burbujas, protector de pantalla para</t>
+          <t>Funda para Motorola Moto G 2025, TPU suave transparente antiamarilleo, bolsa de aire de 4 esquinas, ultra delgada, a prueba de golpes, protección para Moto G Play 2025 5G 6.7 pulgadas</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4.4 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -7308,7 +7256,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Funda para Motorola Moto G Power 2025, TPU suave transparente antiamarilleo, compatible con carga inalámbrica, bolsa de aire de 4 esquinas ultra delgada, protección a prueba de golpes para Moto</t>
+          <t>for Moto G Power 5G 2025 Case,with Camera Lens Cover HD Screen Protector,[Military Grade] Car Mount Kickstand Shockproof Protective Case for Motorola G Power 5G 2025, Black</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7334,7 +7282,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Funda para Motorola Moto G 2025, TPU suave transparente antiamarilleo, bolsa de aire de 4 esquinas, ultra delgada, a prueba de golpes, protección para Moto G Play 2025 5G 6.7 pulgadas</t>
+          <t>for Moto G Power 5G 2025 Case,with Camera Lens Cover HD Screen Protector,[Military Grade] Car Mount Kickstand Shockproof Protective Case for Motorola G Power 5G 2025, Black</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7360,7 +7308,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>TQLGY Protector de pantalla para Motorola Moto G 5G (2025), vidrio templado 9H, antiarañazos, sin burbujas, compatible con fundas, transparente de alta definición, paquete de 3</t>
+          <t>Bandeja de tarjeta SIM individual Reemplazo del soporte de ranura SD para Motorola Moto G Stylus 5G 2024 XT2419 (dorado)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7386,16 +7334,16 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Funda para Motorola Moto G 2025, TPU suave transparente antiamarilleo, bolsa de aire de 4 esquinas, ultra delgada, a prueba de golpes, protección para Moto G Play 2025 5G 6.7 pulgadas</t>
+          <t>Paquete de 2 protectores de pantalla de vidrio templado compatibles con Motorola Moto G04s / Motorola Moto G04 [dureza 9H premium] Protector de pantalla de vidrio templado sin burbujas antiarañazos</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>5.0 de 5 estrellas</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -7406,13 +7354,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Funda para Moto G Power 2025: con protector de pantalla, absorción de golpes, funda protectora de goma TPU flexible para Moto G Power 5G 2025 (negro)</t>
+          <t>2 Pack for Motorola Moto G Power (2025) Screen Protector Tempered Glass Anti Scratch Bubble Free 9H Hardness Case Friendly</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7421,10 +7369,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D39" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -7432,25 +7380,25 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Paquete de 2 protectores de pantalla para Moto Edge 50, protector de pantalla de vidrio templado completo 3D para Moto Edge 50 3D, ultra resistente, sin burbujas, protector de pantalla para</t>
+          <t>Funda para Moto G Power 5G 2025: transparente para mujeres y niñas con protector de pantalla esquinas reforzadas TPU absorción de golpes flexible para Moto G Power 5G 2025 Funda de teléfono</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4.4 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7464,16 +7412,16 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TQLGY Screen Protector for Motorola Moto G Power 5G (2025), 9H Tempered Glass, Anti-Scratch, Bubble Free, Case Friendly, HD Clear, 3-Pack</t>
+          <t>FNTCASE Funda para Motorola Moto G-5G-2024: protección contra caídas de alto grado anti amarillamiento funda para teléfono celular - Carcasa protectora resistente a prueba de golpes transparente</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.4 de 5 estrellas</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -7484,25 +7432,25 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Funda de TPU transparente para Moto G75 5G a prueba de golpes de grado militar. Ultrafina a prueba de caídas y ultra flexible. Para Motorola G75 5G</t>
+          <t>Paquete de 3 protectores de pantalla para Motorola Moto G 5G (2025), vidrio templado HD, dureza 9H, compatible con fundas, fácil instalación, antiroturas, sin burbujas</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4.4 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7516,16 +7464,16 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>for Moto G Power 5G 2025 Case,with Camera Lens Cover HD Screen Protector,[Military Grade] Car Mount Kickstand Shockproof Protective Case for Motorola G Power 5G 2025, Black</t>
+          <t>Protector de pantalla y protector de lente de cámara para Motorola Moto G Stylus 5G 2024, película de vidrio templado HD doble inastillable, dureza 9H, protección contra impactos, antiroturas,</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>3.9 de 5 estrellas</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -7536,22 +7484,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Bandeja de tarjeta SIM individual Reemplazo del soporte de ranura SD para Motorola Moto G Stylus 5G 2024 XT2419 (dorado)</t>
+          <t>FNTCASE Funda para Motorola Moto G-Stylus-5G-2023: funda protectora de doble capa a prueba de golpes | Protector de lente HD | Parte trasera texturizada antideslizante | Parachoques de protección</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.5 de 5 estrellas</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -7562,13 +7510,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2 Pack for Motorola Moto G Power (2025) Screen Protector Tempered Glass Anti Scratch Bubble Free 9H Hardness Case Friendly</t>
+          <t>Supershieldz Protector de pantalla de vidrio templado diseñado para Motorola Moto G (2025), antiarañazos, sin burbujas</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -7594,12 +7542,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Paquete de 2 protectores de pantalla de vidrio templado compatibles con Motorola Moto G04s / Motorola Moto G04 [dureza 9H premium] Protector de pantalla de vidrio templado sin burbujas antiarañazos</t>
+          <t>Paquete de 4 protectores de pantalla de vidrio compatibles con Motorola Moto G Power 5G (2024) / XT2415 [dureza 9H], vidrio templado de pantalla HD, resistente a los arañazos, fácil de instalar</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5.0 de 5 estrellas</t>
+          <t>3.9 de 5 estrellas</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -7620,7 +7568,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Mountain Moto Bike 3D: Wheelie Dirt &amp; Racing Champions Game</t>
+          <t>Folmeikat Funda compatible con Motorola Moto G Power 5G 2025, absorción de golpes, flexible y transparente, de goma TPU protectora para Moto G Power 2025 de 6.8 pulgadas, transparente</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -7646,7 +7594,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Funda para Moto G Power 5G 2025: transparente para mujeres y niñas con protector de pantalla esquinas reforzadas TPU absorción de golpes flexible para Moto G Power 5G 2025 Funda de teléfono</t>
+          <t>Folmeikat Funda compatible con Motorola Moto G Play 5G 2025, absorción de golpes, flexible de goma TPU protectora para Moto G Play 5G 2025 de 6.7 pulgadas, color negro</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -7658,7 +7606,7 @@
         <v>7</v>
       </c>
       <c r="D48" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -7666,18 +7614,18 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Moto Race City Wheelie Bike Game 3D</t>
+          <t>Folmeikat Funda compatible con Motorola Moto G Play 4G 2025, absorción de golpes, flexible y transparente, de goma TPU protectora para Moto G 5G 2025 de 6.7 pulgadas, transparente</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4.0 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -7698,12 +7646,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Supershieldz Protector de pantalla de vidrio templado diseñado para Motorola Moto G (2025), antiarañazos, sin burbujas</t>
+          <t>Mr.Shield Protector de pantalla puede usarse con Motorola Moto E14 [vidrio templado] [3 unidades] [Vidrio japonés con dureza 9H]</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.0 de 5 estrellas</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -7724,19 +7672,19 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Paquete de 3 protectores de pantalla para Motorola Moto G 5G (2025), vidrio templado HD, dureza 9H, compatible con fundas, fácil instalación, antiroturas, sin burbujas</t>
+          <t>Mr.Shield Protector de pantalla puede usarse con Motorola Moto E14 [vidrio templado] [3 unidades] [Vidrio japonés con dureza 9H]</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.0 de 5 estrellas</t>
         </is>
       </c>
       <c r="C51" t="n">
         <v>7</v>
       </c>
       <c r="D51" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -7744,18 +7692,18 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Supershieldz Protector de pantalla de vidrio templado diseñado para Motorola Moto G (2025), antiarañazos, sin burbujas</t>
+          <t>Mr.Shield [Paquete de 3] Diseñado para Motorola Moto G22 [vidrio templado] [Vidrio japonés con dureza 9H] Protector de pantalla con reemplazo de por vida</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.5 de 5 estrellas</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -7776,12 +7724,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Folmeikat Funda compatible con Motorola Moto G Play 5G 2025, absorción de golpes, flexible de goma TPU protectora para Moto G Play 5G 2025 de 6.7 pulgadas, color negro</t>
+          <t>Funda para Motorola Moto G Power 5G 2024 con protector de pantalla HD y soporte de anillo giratorio, [2 en 1], funda resistente a prueba de golpes para Moto G Power 5G 2024 de 6.7 pulgadas,</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.2 de 5 estrellas</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -7802,12 +7750,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Folmeikat Funda compatible con Motorola Moto G Power 5G 2025, absorción de golpes, flexible y transparente, de goma TPU protectora para Moto G Power 2025 de 6.8 pulgadas, transparente</t>
+          <t>Funda protectora para Moto E14 5G, Motorola E14 5G, TPU suave para niñas y mujeres, delgada y flexible, funda protectora protectora para Motorola Moto E14 5G (mariposa)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>5.0 de 5 estrellas</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -7828,7 +7776,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Folmeikat Funda compatible con Motorola Moto G Play 4G 2025, absorción de golpes, flexible y transparente, de goma TPU protectora para Moto G 5G 2025 de 6.7 pulgadas, transparente</t>
+          <t>Paquete de 3 protectores de pantalla de privacidad para Motorola Moto G Power 5G 2025, vidrio templado, sin burbujas, fácil de instalar, dureza 9H</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -7854,12 +7802,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Mr.Shield [Paquete de 3] Diseñado para Motorola Moto G22 [vidrio templado] [Vidrio japonés con dureza 9H] Protector de pantalla con reemplazo de por vida</t>
+          <t>Paquete de 3 protectores de pantalla de privacidad para Motorola Moto G Power 5G 2025, vidrio templado, sin burbujas, fácil de instalar, dureza 9H</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4.5 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -7880,16 +7828,16 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Mr.Shield Protector de pantalla puede usarse con Motorola Moto E14 [vidrio templado] [3 unidades] [Vidrio japonés con dureza 9H]</t>
+          <t>DUEDUE Funda para Motorola G Play 2023 con soporte de anillo, rotación de 360 grados, dedo magnético para automóvil, TPU suave, funda delgada a prueba de golpes, funda protectora para Moto G Play</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4.0 de 5 estrellas</t>
+          <t>4.6 de 5 estrellas</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -7900,22 +7848,22 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Paquete de 3 protectores de pantalla de privacidad para Motorola Moto G Power 5G 2025, vidrio templado, sin burbujas, fácil de instalar, dureza 9H</t>
+          <t>Funda diseñada para Moto G53, TPU flexible [textura cepillada] [antideslizante] protección militar a prueba de golpes, funda delgada para Motorola Moto G53, color negro</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.5 de 5 estrellas</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -7926,7 +7874,33 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>7</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Asuwish Funda para teléfono Motorola G60 Moto G40 Fusion con protector de pantalla de vidrio templado y soporte delgado, híbrida, resistente, funda protectora para celular MotoG60 G 60 40 Kickstand</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>5.0 de 5 estrellas</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>6</v>
+      </c>
+      <c r="D59" t="n">
+        <v>50</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -7940,7 +7914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7983,19 +7957,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Moto Wheelie 3D</t>
+          <t>Funda rígida para Moto G54, transparente, delgada, rígida, híbrida, a prueba de golpes, con protector de pantalla de vidrio templado, cuerpo completo, anti-amarilla, antiarañazos, funda</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.9 de 5 estrellas</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -8003,13 +7977,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>The JYT Moto Method 2.0: The Most Comprehensive Motocross &amp; Offroad Physical Training Resource</t>
+          <t>KAREEN 2 Pack Screen Protector for Motorola Moto G 5G (2025) Tempered Glass, 9H Hardness, Anti Scratch, Bubble Free, Case Friendly</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -8018,7 +7992,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -8029,25 +8003,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Funda rígida para Moto G54, transparente, delgada, rígida, híbrida, a prueba de golpes, con protector de pantalla de vidrio templado, cuerpo completo, anti-amarilla, antiarañazos, funda</t>
+          <t>The 2020 BFG Mint 400 Moto Race</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4.9 de 5 estrellas</t>
+          <t>5.0 de 5 estrellas</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -8055,22 +8029,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Funda diseñada para Moto G53, TPU flexible [textura cepillada] [antideslizante] protección militar a prueba de golpes, funda delgada para Motorola Moto G53, color negro</t>
+          <t>This is MOTO</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4.5 de 5 estrellas</t>
+          <t>4.6 de 5 estrellas</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -8081,22 +8055,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DUEDUE Funda para Motorola G Play 2023 con soporte de anillo, rotación de 360 grados, dedo magnético para automóvil, TPU suave, funda delgada a prueba de golpes, funda protectora para Moto G Play</t>
+          <t>KAREEN Paquete de 2 protectores de pantalla para Motorola Moto G 5G 2024, vidrio templado, antiarañazos, sin burbujas, transparente de alta definición, compatible con fundas, dureza 9H</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4.6 de 5 estrellas</t>
+          <t>3.8 de 5 estrellas</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -8107,25 +8081,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Asuwish Funda para teléfono Motorola G60 Moto G40 Fusion con protector de pantalla de vidrio templado y soporte delgado, híbrida, resistente, funda protectora para celular MotoG60 G 60 40 Kickstand</t>
+          <t>Motocross 101</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5.0 de 5 estrellas</t>
+          <t>3.9 de 5 estrellas</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -8133,13 +8107,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>KAREEN 2 Pack Screen Protector for Motorola Moto G 5G (2025) Tempered Glass, 9H Hardness, Anti Scratch, Bubble Free, Case Friendly</t>
+          <t>Paquete de 2 protectores de pantalla para Motorola Moto G 5G (2023) / XT2313, vidrio templado, bordes microcurvados, compatible con fundas, sin burbujas, transparente HD, fácil instalación</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -8148,7 +8122,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -8159,22 +8133,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>This is MOTO</t>
+          <t>Moto CO: Revolutions</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4.6 de 5 estrellas</t>
+          <t>4.3 de 5 estrellas</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -8185,22 +8159,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>This is MOTO</t>
+          <t>The Girl on a Motorcycle</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4.6 de 5 estrellas</t>
+          <t>3.9 de 5 estrellas</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -8211,18 +8185,18 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Motocross 101</t>
+          <t>Butter: All Moto Flavored</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3.9 de 5 estrellas</t>
+          <t>4.2 de 5 estrellas</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -8243,16 +8217,16 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Moto CO: Revolutions</t>
+          <t>Riding Motocross Glover Style</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4.3 de 5 estrellas</t>
+          <t>5.0 de 5 estrellas</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -8263,22 +8237,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>The Girl on a Motorcycle</t>
+          <t>Miss Moto - Webisode #1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3.9 de 5 estrellas</t>
+          <t>2.2 de 5 estrellas</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8289,22 +8263,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Paquete de 2 protectores de pantalla para Motorola Moto G 5G (2023) / XT2313, vidrio templado, bordes microcurvados, compatible con fundas, sin burbujas, transparente HD, fácil instalación</t>
+          <t>Miss Moto - Webisode #1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>2.2 de 5 estrellas</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8315,22 +8289,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Motocross 101</t>
+          <t>Unchained: The Untold Story of Freestyle Motocross</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3.9 de 5 estrellas</t>
+          <t>4.7 de 5 estrellas</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8341,22 +8315,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Butter: All Moto Flavored</t>
+          <t>Moto Psycho</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4.2 de 5 estrellas</t>
+          <t>4.6 de 5 estrellas</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8367,18 +8341,18 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Moto Psycho</t>
+          <t>Unchained: The Untold Story of Freestyle Motocross</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4.6 de 5 estrellas</t>
+          <t>4.7 de 5 estrellas</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -8399,12 +8373,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Moto Psycho</t>
+          <t>Miss Moto - Webisode #2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4.6 de 5 estrellas</t>
+          <t>2.0 de 5 estrellas</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -8425,16 +8399,16 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Miss Moto - Webisode #1</t>
+          <t>Mr. Moto's Last Warning</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2.2 de 5 estrellas</t>
+          <t>4.0 de 5 estrellas</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -8445,22 +8419,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Miss Moto - Webisode #2</t>
+          <t>The Art of Moto</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2.0 de 5 estrellas</t>
+          <t>4.5 de 5 estrellas</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -8471,22 +8445,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Unchained: The Untold Story of Freestyle Motocross</t>
+          <t>Bruce Brown's Moto Classics: Hare &amp; Hound Classic</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4.7 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -8497,22 +8471,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Unchained: The Untold Story of Freestyle Motocross</t>
+          <t>Transitalia Marathon International Classic Motorbike Challenge</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4.7 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -8523,22 +8497,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Mr. Moto's Last Warning</t>
+          <t>Moto 3: The Movie</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4.0 de 5 estrellas</t>
+          <t>4.5 de 5 estrellas</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -8549,22 +8523,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Mr. Moto's Last Warning</t>
+          <t>Moto G Power 2022 | Batería de 3 días | Desbloqueado | Hecho para Estados Unidos por Motorola | 4/128 GB | Cámara de 50 MP | Azul hielo</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4.0 de 5 estrellas</t>
+          <t>4.2 de 5 estrellas</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -8575,22 +8549,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Bruce Brown's Moto Classics: Hare &amp; Hound Classic</t>
+          <t>Moto 9: The Movie</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.4 de 5 estrellas</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -8601,22 +8575,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>The Art of Moto</t>
+          <t>Moto The Movie</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4.5 de 5 estrellas</t>
+          <t>4.4 de 5 estrellas</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -8627,22 +8601,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Bruce Brown's Moto Classics: Hare &amp; Hound Classic</t>
+          <t>Moto 5: The Movie</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.5 de 5 estrellas</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -8653,22 +8627,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>The Art of Moto</t>
+          <t>Moto City Traffic Racer</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4.5 de 5 estrellas</t>
+          <t>5.0 de 5 estrellas</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -8679,13 +8653,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Transitalia Marathon International Classic Motorbike Challenge</t>
+          <t>Grau e Motos</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -8694,7 +8668,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -8705,18 +8679,18 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>FIM Junior Motocross World Championship 2024</t>
+          <t>Moto 4: The Movie</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.8 de 5 estrellas</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -8737,12 +8711,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Real Gangster Chase Moto Bike 2019</t>
+          <t>PAW Patrol: Moto Pups</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3.0 de 5 estrellas</t>
+          <t>4.8 de 5 estrellas</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -8763,12 +8737,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MotoGP | Round 18 | Thailand</t>
+          <t>Moto 2: The Movie</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.4 de 5 estrellas</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -8789,12 +8763,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MotoGP | Round 16 | Japan</t>
+          <t>Moto 6: The Movie</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.5 de 5 estrellas</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -8815,7 +8789,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MotoGP | Round 10 | Great Britain</t>
+          <t>MOTO CO: DEPTH EP.1 Full Episode Ft. Adam Enticknap</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -8841,12 +8815,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>This is MOTO (4K UHD)</t>
+          <t>MotoGP | Round 11 | Austria</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4.6 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -8867,12 +8841,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Moto The Movie</t>
+          <t>FIM Junior Motocross World Championship 2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4.4 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -8893,7 +8867,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MotoGP | Round 19 | Malaysia</t>
+          <t>Metal Beasts and Holy Motors: The Motorbikes</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -8919,7 +8893,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MotoGP | Round 20 | Barcelona</t>
+          <t>L'Homme à la moto in the Style of Fanny</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -8945,12 +8919,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PAW Patrol: Moto Pups</t>
+          <t>Moto: A Menage Motorcycle Romance</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4.8 de 5 estrellas</t>
+          <t>4.5 de 5 estrellas</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -8971,12 +8945,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Moto 4: The Movie</t>
+          <t>MotoGP | Round 11 | Austria</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4.8 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -8997,12 +8971,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Moto 2: The Movie</t>
+          <t>Moto Driving</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4.4 de 5 estrellas</t>
+          <t>3.3 de 5 estrellas</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -9023,12 +8997,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Moto 3: The Movie</t>
+          <t>Alpinestars S-M3 Casco de moto juvenil (negro mate, juvenil M)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4.5 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -9049,12 +9023,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Moto 6: The Movie</t>
+          <t>MotoGP | Round 19 | Malaysia</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4.5 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -9075,12 +9049,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Moto 5: The Movie</t>
+          <t>MotoGP | Round 20 | Barcelona</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4.5 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -9095,32 +9069,6 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Slacker - Sintonizador de suspensión de movimiento suave y preciso profesional con Bluetooth para motos de cross, bicicletas de steet, bicicletas de aventura y bicicletas de montaña</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>4.5 de 5 estrellas</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Patrocinado</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9135,7 +9083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9178,7 +9126,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MotoGP | Round 12 | Aragon</t>
+          <t>MotoGP | Round 16 | Japan</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -9204,12 +9152,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Moto G Power 2022 | Batería de 3 días | Desbloqueado | Hecho para Estados Unidos por Motorola | 4/128 GB | Cámara de 50 MP | Azul hielo</t>
+          <t>MotoGP | Round 8 | Netherlands</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4.2 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -9230,12 +9178,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Moto 9: The Movie</t>
+          <t>Slacker - Sintonizador de suspensión de movimiento suave y preciso profesional con Bluetooth para motos de cross, bicicletas de steet, bicicletas de aventura y bicicletas de montaña</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4.4 de 5 estrellas</t>
+          <t>4.5 de 5 estrellas</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -9246,7 +9194,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Patrocinado</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -9256,7 +9204,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Moto X3M Spooky Land</t>
+          <t>MotoGP | Round 9 | Germany</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -9282,7 +9230,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Moto Bike X3M Racing Game</t>
+          <t>MotoGP | Round 10 | Great Britain</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -9308,12 +9256,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Moto Rider GO: Highway Traffic</t>
+          <t>This is MOTO (4K UHD)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>4.6 de 5 estrellas</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -9334,7 +9282,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Real Moto Race Master</t>
+          <t>MotoGP | Round 8 | Netherlands</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -9360,7 +9308,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Pizza Bike Delivery Boy : Moto Pizza Boy</t>
+          <t>MotoGP | Round 15 | Indonesia</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -9386,7 +9334,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Moto Grau Brasil</t>
+          <t>MotoGP | Round 12 | Aragon</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -9412,12 +9360,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Extreme Motorbike Jump 3D</t>
+          <t>MotoGP | Round 2 | Portugal</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3.5 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -9438,12 +9386,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MOTO 3 The Movie Blu-Ray</t>
+          <t>MotoGP | Round 19 | Malaysia</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4.5 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -9464,12 +9412,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Moto Racing</t>
+          <t>Natoker Moto</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1.8 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -9490,12 +9438,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PAW Patrol: Moto Pups</t>
+          <t>MotoGP | Round 11 | Austria</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4.8 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -9516,7 +9464,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MotoGP | Round 8 | Netherlands</t>
+          <t>L'homme à la moto in the Style of Florent Pagny</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -9568,7 +9516,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MotoGP | Round 2 | Portugal</t>
+          <t>MotoGP | Round 20 | Barcelona</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -9594,7 +9542,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Moto Psycho in the Style of Megadeth</t>
+          <t>L'homme à la moto in the Style of Édith Piaf</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -9620,7 +9568,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>L'homme à la moto in the Style of Édith Piaf</t>
+          <t>Moto Psycho in the Style of Megadeth</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -9646,7 +9594,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MotoGP | Round 20 | Barcelona</t>
+          <t>L'homme à la moto in the Style of Édith Piaf</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -9672,7 +9620,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Motos Locos</t>
+          <t>MotoGP | Round 20 | Barcelona</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -9698,7 +9646,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fly! moto</t>
+          <t>MotoGP | Round 13 | San Marino</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -9724,12 +9672,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Wrong Way Moto Rider Game</t>
+          <t>MotoGP | Round 2 | Portugal</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3.3 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -9750,12 +9698,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Offorad Moto Bike Rider Game 2018</t>
+          <t>Moto Psycho in the Style of Megadeth</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3.8 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -9776,12 +9724,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Moto 4: The Movie</t>
+          <t>MotoGP | Round 8 | Netherlands</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4.5 de 5 estrellas</t>
+          <t>Sin calificación</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -9802,7 +9750,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MOTO 8 The Movie</t>
+          <t>Motorola Moto G Power 5G | 2023 | Desbloqueado | Hecho para US 6/256GB | 50 MPCamera | Negro mineral</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -9828,12 +9776,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GP Moto Racing 3</t>
+          <t>FIM Red Bull Motocross de las Naciones 2010</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sin calificación</t>
+          <t>5.0 de 5 estrellas</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -9854,7 +9802,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Extreme Bike Games 3D - Moto Rider Bike Racing Game Offline</t>
+          <t>MotoGP | Round 10 | Great Britain</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -9880,12 +9828,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Moto: A Menage Motorcycle Romance</t>
+          <t>Speed Moto Racing 3D</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4.5 de 5 estrellas</t>
+          <t>3.4 de 5 estrellas</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -9900,6 +9848,32 @@
         </is>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MotoGP | Round 10 | Great Britain</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Sin calificación</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
         <v>0</v>
       </c>
     </row>
